--- a/doc/hupf/Gene Frequency.xlsx
+++ b/doc/hupf/Gene Frequency.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth\Documents\Genes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15100AE8-DB03-4D32-81DF-160010285F8B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2376523-71AA-419B-AA53-9D4C810BEE77}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" xr2:uid="{10C40B49-6154-4245-AD46-80E39C341D73}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" activeTab="3" xr2:uid="{10C40B49-6154-4245-AD46-80E39C341D73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="grik3" sheetId="2" r:id="rId2"/>
+    <sheet name="tprm8" sheetId="4" r:id="rId3"/>
+    <sheet name="COMT" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="242">
   <si>
     <t>Minor</t>
   </si>
@@ -61,14 +65,728 @@
   </si>
   <si>
     <t>chrne_t10927c</t>
+  </si>
+  <si>
+    <t>trpm8_G3264+630A</t>
+  </si>
+  <si>
+    <t>trpm8_G3264+2567A</t>
+  </si>
+  <si>
+    <t>trpm8_G750C</t>
+  </si>
+  <si>
+    <t>trpm8_C-990T</t>
+  </si>
+  <si>
+    <t>brain and nervous system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Paragraph</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Chromosome</t>
+  </si>
+  <si>
+    <t>The GRIK3 gene creates a protein that helps form receptors for the transmitter [glutamate.](https://www.nimh.nih.gov/health/educational-resources/brain-basics/brain-basics.shtml)  Problems creating or absorbing glutamate are linked to [schizophrenia, depression, and memory problems.](https://www.nimh.nih.gov/health/educational-resources/brain-basics/brain-basics.shtml)  Sustained exposure to excess glutamate in CFS patients causes sickness, neurotoxicity, stress, and peripheral nervous sensitivity.  Currently, GRIK3 variants are linked to recurrent [major](https://www.ncbi.nlm.nih.gov/pubmed/16958029) [depressive disorder](https://www.ncbi.nlm.nih.gov/pubmed/19221446/), [developmental delays](https://www.ncbi.nlm.nih.gov/pubmed/24449200/), and a [30% increase](https://www.ncbi.nlm.nih.gov/pubmed/25054019?dopt=Abstract) in the [risk](https://www.ncbi.nlm.nih.gov/pubmed/11986986) for [schizophrenia.](https://www.ncbi.nlm.nih.gov/pubmed/19921975/)</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>Tissue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brain  </t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>Variant Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variant  </t>
+  </si>
+  <si>
+    <t>Gene Location</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>GRIK3</t>
+  </si>
+  <si>
+    <t>NC000001_1.11:g.1111_9999</t>
+  </si>
+  <si>
+    <t>NC000001_1.11:g.2222T&gt;G</t>
+  </si>
+  <si>
+    <t>T928G</t>
+  </si>
+  <si>
+    <t>thymine (T)</t>
+  </si>
+  <si>
+    <t>guanine (G)</t>
+  </si>
+  <si>
+    <t>HGVS</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>NC000001_1.11:g.</t>
+  </si>
+  <si>
+    <t>[2222T&gt;G]</t>
+  </si>
+  <si>
+    <t>[2222=]</t>
+  </si>
+  <si>
+    <t>[T928G](https://www.ncbi.nlm.nih.gov/gene?Db=gene&amp;Cmd=ShowDetailView&amp;TermToSearch=2899) [(Ser310Ala)](https://www.ncbi.nlm.nih.gov/pubmed/11986986) [polymorphism](https://www.ncbi.nlm.nih.gov/pubmed/25054019?dopt=Abstract)</t>
+  </si>
+  <si>
+    <t>het meaning</t>
+  </si>
+  <si>
+    <t>het effect</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>You are at greater risk for schizophrenia, depression, and glutamate problems.  See below for more information.</t>
+  </si>
+  <si>
+    <t>hom meaning</t>
+  </si>
+  <si>
+    <t>hom effect</t>
+  </si>
+  <si>
+    <t>wild meaning</t>
+  </si>
+  <si>
+    <t>wild effect</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>unknwon</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>The variants in GRIK3 have strong associations with increased risk of schizophrenia, but for most patients this may not change treatment for CFS.  However, its variant’s association with glutamate and other neurological issues may interact with other genes, so we have included it in this disease panel.</t>
+  </si>
+  <si>
+    <t># What should I do about this?</t>
+  </si>
+  <si>
+    <t>CFS is linked to improper Glutamate:GABA balance, as well as exposure to extracellular glutamate caused by neuroinflammatory stimuli.  Sustained exposure to extracellular glutamate in CFS patients causes [sickness behavior, neurotoxicity, stress, and peripheral nervous sensitivity.](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5314655/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[This gene creates a protein that helps form receptors for glutamate that act as excitatory neurotransmitters in your brain and nervous system.](https://www.ncbi.nlm.nih.gov/gene?Db=gene&amp;Cmd=ShowDetailView&amp;TermToSearch=2899)  Excitatory transmitters increase the chance that the neuron will fire, [enhancing electrical flow among brain cells.](https://www.nimh.nih.gov/health/educational-resources/brain-basics/brain-basics.shtml)  Glutamate is the most important transmitter for normal brain function, but [elevated levels are toxic to neurons.](https://www.ncbi.nlm.nih.gov/books/NBK10807/) </t>
+  </si>
+  <si>
+    <t>GRIK3 Ser310Ala polymorphism has been linked to [schizophrenia](https://www.ncbi.nlm.nih.gov/pubmed/19921975/) and [major depression.](https://www.ncbi.nlm.nih.gov/pubmed/16958029)  The Ser310Ala allele in homozygosity is associated with higher scores in [harm avoidance, anticipatory worry, and shyness, with lower scores in exploratory excitability, responsibility, resourcefulness, helpfulness, compassion, self-directedness, and cooperativeness.](https://www.ncbi.nlm.nih.gov/pubmed/19221446/) This pattern of scores is akin to that observed in [depressed patients.](https://www.ncbi.nlm.nih.gov/pubmed/19221446/)  GRIK3 rs6691840 polymorphism was found to increase the risk of [schizophrenia](https://www.ncbi.nlm.nih.gov/pubmed/19921975/) by [30%.](https://www.ncbi.nlm.nih.gov/pubmed/25054019?dopt=Abstract)  Microdeletions have also been indicated in [severe developmental delays.](https://www.ncbi.nlm.nih.gov/pubmed/24449200/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helpful dietary supplements may include:  [Omega-3 PUFAs, CoQ10, N-acetylcysteine, vitamin B12, curcumin, zinc, magnesium, L-Taurine, and L-carnitine.](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5314655/)  </t>
+  </si>
+  <si>
+    <t>Symptoms</t>
+  </si>
+  <si>
+    <t>depression, stress, problems with thinking or memory, brain fog, pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # What does this mean?</t>
+  </si>
+  <si>
+    <t># What is the effect of this variant?</t>
+  </si>
+  <si>
+    <t># How common is this genotype in the general population?</t>
+  </si>
+  <si>
+    <t>NC_000002.11:g</t>
+  </si>
+  <si>
+    <t>[7783504A&gt;C]</t>
+  </si>
+  <si>
+    <t>[7783504=]</t>
+  </si>
+  <si>
+    <t>NC_000001.11:g.</t>
+  </si>
+  <si>
+    <t>[36983994C&gt;T]</t>
+  </si>
+  <si>
+    <t>[36983994=]</t>
+  </si>
+  <si>
+    <t>C36983994T</t>
+  </si>
+  <si>
+    <t>A7783504C</t>
+  </si>
+  <si>
+    <t>adenine (A)</t>
+  </si>
+  <si>
+    <t>NC_000001.11:g.36983994C&gt;T</t>
+  </si>
+  <si>
+    <t>NC_000002.11:g.7783504A&gt;C</t>
+  </si>
+  <si>
+    <t>People with this variant have an increased risk of CFS.  See below for more information.</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Two genotypes of GRIK3 are associated with CFS, the heterozygous A:C [A7783504C](https://www.ncbi.nlm.nih.gov/pubmed/26859813) and the heterozygous C:T [C36983994T](https://www.ncbi.nlm.nih.gov/pubmed/27835969). A:C A7783504C was found in 71.4% of CFS patients, compared with 2.6% of healthy patients.  C:T C36983994T was found in 90.5% of CFS patients, compared with 21.1% of healthy patients.</t>
+  </si>
+  <si>
+    <t>rs3913434</t>
+  </si>
+  <si>
+    <t>rs270838</t>
+  </si>
+  <si>
+    <t>LOC101929510</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>rs6757577</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>rs16827966</t>
+  </si>
+  <si>
+    <t>ARMC9</t>
+  </si>
+  <si>
+    <t>rs6445832</t>
+  </si>
+  <si>
+    <t>ARHGEF3</t>
+  </si>
+  <si>
+    <t>rs1523773</t>
+  </si>
+  <si>
+    <t>EPHA6</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>rs254577</t>
+  </si>
+  <si>
+    <t>C5orf66</t>
+  </si>
+  <si>
+    <t>rs41378447</t>
+  </si>
+  <si>
+    <t>CASC14</t>
+  </si>
+  <si>
+    <t>rs7010471</t>
+  </si>
+  <si>
+    <t>PTDSS1</t>
+  </si>
+  <si>
+    <t>rs12235235</t>
+  </si>
+  <si>
+    <t>RECK</t>
+  </si>
+  <si>
+    <t>rs7849492</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>rs12312259</t>
+  </si>
+  <si>
+    <t>rs9585049</t>
+  </si>
+  <si>
+    <t>UBAC2</t>
+  </si>
+  <si>
+    <t>rs17255510</t>
+  </si>
+  <si>
+    <t>TRA</t>
+  </si>
+  <si>
+    <t>rs11157573</t>
+  </si>
+  <si>
+    <t>rs10144138</t>
+  </si>
+  <si>
+    <t>TRA/TRD</t>
+  </si>
+  <si>
+    <t>rs17120254</t>
+  </si>
+  <si>
+    <t>rs2249954</t>
+  </si>
+  <si>
+    <t>FBLN5</t>
+  </si>
+  <si>
+    <t>rs8029503</t>
+  </si>
+  <si>
+    <t>SLCO3A1</t>
+  </si>
+  <si>
+    <t>rs3095598</t>
+  </si>
+  <si>
+    <t>TOX3</t>
+  </si>
+  <si>
+    <t>rs948440</t>
+  </si>
+  <si>
+    <t>CELF4</t>
+  </si>
+  <si>
+    <t>rs41493945</t>
+  </si>
+  <si>
+    <t>rs3788079</t>
+  </si>
+  <si>
+    <t>AGPAT3</t>
+  </si>
+  <si>
+    <t>AA, AG</t>
+  </si>
+  <si>
+    <t>CC, CT</t>
+  </si>
+  <si>
+    <t>CT, TT</t>
+  </si>
+  <si>
+    <t>AT, TT</t>
+  </si>
+  <si>
+    <t>CT, CC</t>
+  </si>
+  <si>
+    <t>AG, GG</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=6757577</t>
+  </si>
+  <si>
+    <t>LOC105369166</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4872418/</t>
+  </si>
+  <si>
+    <t>TPRM8</t>
+  </si>
+  <si>
+    <t>The TRPM8 gene encodes a cation channel that allows the movement of sodium, potassium, calcium, and cesium across plasma barriers activated by [low temperatures](https://www.ncbi.nlm.nih.gov/pubmed/14757700?dopt=Abstract).  It allows the body to detect [temperature
+changes](https://www.ncbi.nlm.nih.gov/pubmed/17217067), respond to cold, balance calcium in the body, and feel the cooling effects of menthol.   Variants in TRPM8 are associated with [breast](https://www.ncbi.nlm.nih.gov/pubmed/20482834), [pancreatic](https://www.ncbi.nlm.nih.gov/pubmed/27038374), [lung](https://www.ncbi.nlm.nih.gov/pubmed/24037916), and [prostate](https://www.ncbi.nlm.nih.gov/pubmed/25065497) cancer.  Additional issues include increased susceptibility to [metabolic syndrome](https://www.ncbi.nlm.nih.gov/pubmed/25967713), [migraines](https://www.ncbi.nlm.nih.gov/pubmed/23294458?dopt=Abstract), [alcohol dependence](https://www.ncbi.nlm.nih.gov/pubmed/23942779?dopt=Abstract), [COPD](https://www.ncbi.nlm.nih.gov/pubmed/27789940), [pain](https://www.ncbi.nlm.nih.gov/pubmed/22072275?dopt=Abstract) and [cold sensitivity](https://www.ncbi.nlm.nih.gov/pubmed/21542321?dopt=Abstract), [asthma](https://www.ncbi.nlm.nih.gov/pubmed/26272603), and [inflammation](https://www.ncbi.nlm.nih.gov/pubmed/26660531).  Other variants reduce natural killer cell function in the immune system and are associated with [CFS](https://www.ncbi.nlm.nih.gov/pubmed/27099524).</t>
+  </si>
+  <si>
+    <t>cation channel</t>
+  </si>
+  <si>
+    <t>nervous, immune, and sensory systems</t>
+  </si>
+  <si>
+    <t>G3264+630A</t>
+  </si>
+  <si>
+    <t>NC_000002.12:g.234008733G&gt;A</t>
+  </si>
+  <si>
+    <t>NC_000002.12:g.</t>
+  </si>
+  <si>
+    <t>[234008733G&gt;A]</t>
+  </si>
+  <si>
+    <t>[234008733=]</t>
+  </si>
+  <si>
+    <t>brain, bone marrow and immune system, circulatory and cardiovascular system, respiratory system and lung</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NC_000002.12 :g.233917342_234019522</t>
+  </si>
+  <si>
+    <t>G3264+2567A</t>
+  </si>
+  <si>
+    <t>NC_000002.12:g.234010670G&gt;A</t>
+  </si>
+  <si>
+    <t>G750C</t>
+  </si>
+  <si>
+    <t>T-990C</t>
+  </si>
+  <si>
+    <t>NC_000002.12:g.233945906G&gt;C</t>
+  </si>
+  <si>
+    <t>NC_000002.12:g.233916448T&gt;C</t>
+  </si>
+  <si>
+    <t>NC_000002.12:g.233974736A&gt;G</t>
+  </si>
+  <si>
+    <t>[234010670G&gt;A]</t>
+  </si>
+  <si>
+    <t>[234010670=]</t>
+  </si>
+  <si>
+    <t>[233945906G&gt;C]</t>
+  </si>
+  <si>
+    <t>[233945906=]</t>
+  </si>
+  <si>
+    <t>[233916448T&gt;C]</t>
+  </si>
+  <si>
+    <t>[233916448=]</t>
+  </si>
+  <si>
+    <t>[233974736A&gt;G]</t>
+  </si>
+  <si>
+    <t>[233974736=]</t>
+  </si>
+  <si>
+    <t>[G3264+630A](https://www.ncbi.nlm.nih.gov/pubmed/27099524)</t>
+  </si>
+  <si>
+    <t>[G3264+2567A](https://www.ncbi.nlm.nih.gov/pubmed/27099524)</t>
+  </si>
+  <si>
+    <t>[G750C](https://www.ncbi.nlm.nih.gov/pubmed/22072275?dopt=Abstract)</t>
+  </si>
+  <si>
+    <t>[T-990C](https://www.ncbi.nlm.nih.gov/pubmed/27099524)</t>
+  </si>
+  <si>
+    <t>[A7783504C](https://www.ncbi.nlm.nih.gov/pubmed/27835969)</t>
+  </si>
+  <si>
+    <t>Your variant is not associated with any loss of function</t>
+  </si>
+  <si>
+    <t>You are in the Severe Risk category.  See below for more information</t>
+  </si>
+  <si>
+    <t>No medical therapies are indicated at the moment.</t>
+  </si>
+  <si>
+    <t>You are in the Severe Risk category.  See below for more information.</t>
+  </si>
+  <si>
+    <t>This variant is not associated with increased risk.</t>
+  </si>
+  <si>
+    <t>You are in the Severe Loss of Function category.  See below for more information.</t>
+  </si>
+  <si>
+    <t>This variant is not associated with Moderate Loss of Function.</t>
+  </si>
+  <si>
+    <t>The effect is unknown.</t>
+  </si>
+  <si>
+    <t>&lt;# G3264+630A (G;G), G3264+630A (A;A) #&gt;</t>
+  </si>
+  <si>
+    <t># Normal Function</t>
+  </si>
+  <si>
+    <t>No therapies are medically indicated at the moment.</t>
+  </si>
+  <si>
+    <t>&lt;# G3264+630A (G;A) #&gt;</t>
+  </si>
+  <si>
+    <t>Natural killer cells (NKC) are a type of white blood cells found in the blood, bone marrow, spleen, and lymph nodes.  They kill viral infected cells and tumorous cells.  CFS patients have half the cellular efficiency of the normal population with a [17% cellular death rate](https://www.ncbi.nlm.nih.gov/pubmed/27099524).  The G3264+630A variant decreases gene expression in both the DNA and RNA, causing significant reduction in NKC activity.  This variant was 2X as common in [CFS patients at 82.1% with an odds ratio of 7.19.](https://www.ncbi.nlm.nih.gov/pubmed/27099524)</t>
+  </si>
+  <si>
+    <t>Many dietary supplements have been found to increase or decrease natural killer cell function. 
+- [Resveratrol](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4855330/) stimulates the immune system in increase NKC activity, but sufficient body concentration can only be achieved through supplementation.  
+- [Myricetin](https://www.ncbi.nlm.nih.gov/pubmed/25075019), a flavonoid found in food and red wine, can increase NKC activity.
+- [Quercetin](https://www.ncbi.nlm.nih.gov/pubmed/19449452), a flavonoid in onions and fruits may improve NKC and T cell function.
+- [Histone deacetylase inhibitors (HDACi) including suberoylanilide hydroxamic acid and valproic acid](https://www.ncbi.nlm.nih.gov/pubmed/17349632/) impair NKC function and should be avoided.</t>
+  </si>
+  <si>
+    <t>&lt;# G3264+2567A (G;G), G3264+2567A (A;A) #&gt;</t>
+  </si>
+  <si>
+    <t># Severe Risk</t>
+  </si>
+  <si>
+    <t>Natural killer cells (NKC) are a type of white blood cells found in the blood, bone marrow, spleen, and lymph nodes.  They kill viral infected cells and tumorous cells.  CFS patients have half the cellular efficiency of the normal population with a [17% cellular death rate](https://www.ncbi.nlm.nih.gov/pubmed/27099524).  The G3264+2567A variant decreases gene expression in both the DNA and RNA, causing significant reduction in NKC activity.  This variant was 2X as common in [CFS patients at 73.3% with an odds ratio of 3.56](https://www.ncbi.nlm.nih.gov/pubmed/27099524).</t>
+  </si>
+  <si>
+    <t>&lt;# G3264+2567A (G;A) #&gt;</t>
+  </si>
+  <si>
+    <t># Moderate Risk</t>
+  </si>
+  <si>
+    <t>&lt;# G750C (G;C) #&gt;</t>
+  </si>
+  <si>
+    <t>&lt;# G750C (G;G) #&gt;</t>
+  </si>
+  <si>
+    <t>The heterozygous GC variant has multiple effects.  Firstly, it causes [increased sensitivity to cold](https://www.ncbi.nlm.nih.gov/pubmed/21542321?dopt=Abstract) as well as increased [inflammation](https://www.ncbi.nlm.nih.gov/pubmed/26660531) due to improper temperature regulation.  It may also cause increased cold-induced airway hyperresponsiveness (CAH) in bronchial asthma (BA) patients.  As the TRPM8 gene regulates cold perception, improper function may lead to hyperstimulation and increased CAH events.  The GC genotype has an [odds ratio of 3.73](https://www.ncbi.nlm.nih.gov/pubmed/26272603), a decrease in forced expiratory volume.</t>
+  </si>
+  <si>
+    <t>If possible, avoid cold air [below 25˚ C](http://www.uniprot.org/uniprot/Q7Z2W7). The carboxamide [WS-12](https://www.ncbi.nlm.nih.gov/pubmed/18930858)(a menthol derivative with much higher efficacy and potency) or [icilin](https://www.ncbi.nlm.nih.gov/pubmed/17517434) may protect against increased cold perception by upregulating the TRPM8 gene,
+reducing bronchial shock.  Other medications include [menthol and eucalyptol](https://www.ncbi.nlm.nih.gov/pubmed/14757700), but this variant causes [lower menthol efficacy](https://www.ncbi.nlm.nih.gov/pubmed/21542321?dopt=Abstract). Users should avoid alcohol and smoking.</t>
+  </si>
+  <si>
+    <t>The homozygous GG variant has greatly decreased gene function, causing greatly [increased sensitivity to cold](https://www.ncbi.nlm.nih.gov/pubmed/21542321?dopt=Abstract) and greatly increased [inflammation](https://www.ncbi.nlm.nih.gov/pubmed/26660531).  This may cause increased [asthmatic attacks](https://www.ncbi.nlm.nih.gov/pubmed/26272603) in cold weather and decreased lung function.</t>
+  </si>
+  <si>
+    <t>Avoid cold air [below 25˚ C](http://www.uniprot.org/uniprot/Q7Z2W7). The carboxamide [WS-12](https://www.ncbi.nlm.nih.gov/pubmed/18930858)(a menthol derivative with much higher efficacy and potency) or [icilin](https://www.ncbi.nlm.nih.gov/pubmed/17517434) may protect against increased cold perception by upregulating the TRPM8 gene,
+reducing bronchial shock.  Other medications include [menthol and eucalyptol](https://www.ncbi.nlm.nih.gov/pubmed/14757700). Users should avoid alcohol and smoking.</t>
+  </si>
+  <si>
+    <t>&lt;# G750C (C;C) #&gt;</t>
+  </si>
+  <si>
+    <t># High Risk</t>
+  </si>
+  <si>
+    <t>TRPM8 a cold and cold-burning pain receptor linked to [migraines](https://www.ncbi.nlm.nih.gov/pubmed/23294458?dopt=Abstract),
+[neuropathic chronic pain](https://www.ncbi.nlm.nih.gov/pubmed/22072275?dopt=Abstract), and [inflammation](https://www.ncbi.nlm.nih.gov/pubmed/26660531).  It processes [cold-mediated pain relievers](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5541777/#R30) and may modulate pain sensation and set [vascular tone](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5541777/#R31), which may influence migraines. This C-990T (C;C) variant is protective, with a [0.7X lower risk](https://www.nature.com/articles/ng.856) for migraines, and the C-990T (C;T) variant is protective, with a [0.85X lower risk](https://www.nature.com/articles/ng.856) for migraines.</t>
+  </si>
+  <si>
+    <t>&lt;# G750C (C;C) C-990T (C;T) #&gt;</t>
+  </si>
+  <si>
+    <t>&lt;# C-990T (T;T) #&gt;</t>
+  </si>
+  <si>
+    <t>TRPM8 a cold and cold-burning pain receptor linked to [migraines](https://www.ncbi.nlm.nih.gov/pubmed/23294458?dopt=Abstract),
+[neuropathic chronic pain](https://www.ncbi.nlm.nih.gov/pubmed/22072275?dopt=Abstract), and [inflammation](https://www.ncbi.nlm.nih.gov/pubmed/26660531).  It processes [cold-mediated pain relievers](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5541777/#R30) and may modulate pain sensation and set [vascular tone](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5541777/#R31), which may influence migraines. This variant increases the risk for migraines as compared to CC or CT.</t>
+  </si>
+  <si>
+    <t>Many compounds may decrease pain due to TRMP8 variants.
+- [WS-12](https://www.ncbi.nlm.nih.gov/pubmed/18930858)(a menthol derivative) has much higher potency and is twice as efficient as menthol as therapy for chronic neuropathic pain
+- Cannabinoid receptors [CB1 and CB2](https://www.ncbi.nlm.nih.gov/pubmed/18511441) are associated with pain modulation, but smoking should be avoided to reduce COPD and lung cancer risk.
+- [Nerve growth factor](https://www.ncbi.nlm.nih.gov/pubmed/18511441) administered topically decreases thermal and mechanical pain
+Other therapies may include [antibodies, siRNA, gene therapy](https://www.ncbi.nlm.nih.gov/pubmed/18511441), and avoiding air [below 25˚ C](http://www.uniprot.org/uniprot/Q7Z2W7).</t>
+  </si>
+  <si>
+    <t>pain, muscle pain, headache, inflammation</t>
+  </si>
+  <si>
+    <t>&lt;# A233974736G (G;G), A233974736G (A;A) #&gt;</t>
+  </si>
+  <si>
+    <t>&lt;# A233974736G (G;A) #&gt;</t>
+  </si>
+  <si>
+    <t>The A233974736G A:G heterozygous variant has an increased risk of CFS, with an [odds ratio of 0.37](https://www.ncbi.nlm.nih.gov/pubmed/27835969).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some general therapies are associated with TPRM8 variants.  Avoid cold air [below 25˚ C](http://www.uniprot.org/uniprot/Q7Z2W7). The carboxamide [WS-12](https://www.ncbi.nlm.nih.gov/pubmed/18930858)(a menthol derivative with much higher efficacy and potency) or [icilin](https://www.ncbi.nlm.nih.gov/pubmed/17517434) may protect against increased cold perception by upregulating the TRPM8 gene.  Other medications include [menthol and eucalyptol](https://www.ncbi.nlm.nih.gov/pubmed/14757700). </t>
+  </si>
+  <si>
+    <t>&lt;# G3264+630A #&gt;</t>
+  </si>
+  <si>
+    <t>&lt;# G3264+2567A #&gt;</t>
+  </si>
+  <si>
+    <t>&lt;# G750C #&gt;</t>
+  </si>
+  <si>
+    <t>&lt;# T-990C #&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;# A7783504C #&gt;</t>
+  </si>
+  <si>
+    <t>&lt;# T928G #&gt;</t>
+  </si>
+  <si>
+    <t>&lt;# C36983994T #&gt;</t>
+  </si>
+  <si>
+    <t>&lt;# A7783504C #&gt;</t>
+  </si>
+  <si>
+    <t>COMT</t>
+  </si>
+  <si>
+    <t>enzyme</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> brain and nervous system, liver, kidney, and blood</t>
+  </si>
+  <si>
+    <t>brain, liver, Kidney and urinary bladder, circulatory and cardiovascular system</t>
+  </si>
+  <si>
+    <t>G472A</t>
+  </si>
+  <si>
+    <t>C62T</t>
+  </si>
+  <si>
+    <t>NC_000022.11:g.19950010T&gt;G</t>
+  </si>
+  <si>
+    <t>NC_000022.11:g.19960814T&gt;C</t>
+  </si>
+  <si>
+    <t>NC_000022.11:g.19943884T&gt;C</t>
+  </si>
+  <si>
+    <t>NC_000022.11:g.19962712C&gt;T</t>
+  </si>
+  <si>
+    <t>NC_000022.11:g.19963748G&gt;A</t>
+  </si>
+  <si>
+    <t>[G472A](https://www.ncbi.nlm.nih.gov/pubmed/21059181)</t>
+  </si>
+  <si>
+    <t>[C62T](https://www.ncbi.nlm.nih.gov/pubmed/26891941)</t>
+  </si>
+  <si>
+    <t>&lt;# C62T #&gt;</t>
+  </si>
+  <si>
+    <t>&lt;# G472A #&gt;</t>
+  </si>
+  <si>
+    <t>NC_000022.11:g.</t>
+  </si>
+  <si>
+    <t>[19963748G&gt;A]</t>
+  </si>
+  <si>
+    <t>[19963748=]</t>
+  </si>
+  <si>
+    <t>[19962712C&gt;T]</t>
+  </si>
+  <si>
+    <t>[19962712=]</t>
+  </si>
+  <si>
+    <t>[A7783504C](https://www.ncbi.nlm.nih.gov/pubmed/19540336)</t>
+  </si>
+  <si>
+    <t>T19960814C</t>
+  </si>
+  <si>
+    <t>[T19960814C](https://www.ncbi.nlm.nih.gov/pubmed/19772600)</t>
+  </si>
+  <si>
+    <t>&lt;# T19960814C #&gt;</t>
+  </si>
+  <si>
+    <t>T19950010G</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;# T19950010G #&gt;</t>
+  </si>
+  <si>
+    <t>T19943884C</t>
+  </si>
+  <si>
+    <t>[T19943884C](https://www.ncbi.nlm.nih.gov/pubmed/19540336)</t>
+  </si>
+  <si>
+    <t>&lt;# T19943884C #&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,16 +811,65 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.3000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFCF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -110,15 +877,152 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,35 +1337,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6621F2-A085-449F-9149-FB5B96CFED17}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2">
         <v>0.19009999999999999</v>
@@ -478,7 +1384,7 @@
         <v>0.61040000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -497,7 +1403,7 @@
         <v>0.37138008000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -516,7 +1422,7 @@
         <v>0.31655</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -535,7 +1441,7 @@
         <v>0.30890000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -554,7 +1460,7 @@
         <v>0.4874</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -573,7 +1479,7 @@
         <v>0.25709999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -591,8 +1497,29 @@
         <f t="shared" si="1"/>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="11">
+        <v>30</v>
+      </c>
+      <c r="H8" s="20">
+        <f>G8/G11</f>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="I8" s="12">
+        <v>3</v>
+      </c>
+      <c r="J8" s="20">
+        <f>I8/I11</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -610,48 +1537,131 @@
         <f t="shared" si="1"/>
         <v>0.90975000000000006</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="9">
+        <v>8</v>
+      </c>
+      <c r="H9" s="20">
+        <f>G9/G11</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="I9" s="9">
+        <v>38</v>
+      </c>
+      <c r="J9" s="20">
+        <f>I9/I11</f>
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.17</v>
+      </c>
+      <c r="C10">
+        <v>0.28199999999999997</v>
+      </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.9500000000000019E-2</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
+        <v>0.61849999999999994</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
+        <f>G10/G11</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J10" s="20">
+        <f>I10/I11</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.3</v>
+      </c>
+      <c r="C11">
+        <v>0.42</v>
+      </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.38500000000000006</v>
+      </c>
+      <c r="G11">
+        <f>SUM(G8:G10)</f>
+        <v>38</v>
+      </c>
+      <c r="I11">
+        <f>SUM(I8:I10)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0.13</v>
+      </c>
+      <c r="C12">
+        <f>45/583</f>
+        <v>7.7186963979416809E-2</v>
+      </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1107032590051458</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.81210977701543741</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0.46</v>
+      </c>
+      <c r="C13">
+        <v>0.47</v>
+      </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.34250000000000003</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -661,7 +1671,7678 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f t="shared" ref="D15:D25" si="2">B15-C15/4</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E25" si="3">1-C15-D15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BF5C6B-B0E8-4D48-81F7-CCA1A745BFFC}">
+  <dimension ref="A1:C210"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("# What does the ",B2," gene do?")</f>
+        <v># What does the GRIK3 gene do?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="str">
+        <f>B4</f>
+        <v>The GRIK3 gene creates a protein that helps form receptors for the transmitter [glutamate.](https://www.nimh.nih.gov/health/educational-resources/brain-basics/brain-basics.shtml)  Problems creating or absorbing glutamate are linked to [schizophrenia, depression, and memory problems.](https://www.nimh.nih.gov/health/educational-resources/brain-basics/brain-basics.shtml)  Sustained exposure to excess glutamate in CFS patients causes sickness, neurotoxicity, stress, and peripheral nervous sensitivity.  Currently, GRIK3 variants are linked to recurrent [major](https://www.ncbi.nlm.nih.gov/pubmed/16958029) [depressive disorder](https://www.ncbi.nlm.nih.gov/pubmed/19221446/), [developmental delays](https://www.ncbi.nlm.nih.gov/pubmed/24449200/), and a [30% increase](https://www.ncbi.nlm.nih.gov/pubmed/25054019?dopt=Abstract) in the [risk](https://www.ncbi.nlm.nih.gov/pubmed/11986986) for [schizophrenia.](https://www.ncbi.nlm.nih.gov/pubmed/19921975/)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE("This gene is located on chromosome ",B6,".  The ",B7," it creates acts in your ",B8)</f>
+        <v>This gene is located on chromosome 1.  The protein it creates acts in your brain and nervous system.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="str">
+        <f>CONCATENATE("&lt;TissueList ",B9," /&gt;")</f>
+        <v>&lt;TissueList brain   /&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="str">
+        <f>CONCATENATE("&lt;GeneAnalysis gene=",CHAR(34),B11,CHAR(34)," interval=",CHAR(34),B12,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">&lt;GeneAnalysis gene="GRIK3" interval="NC000001_1.11:g.1111_9999"&gt; </v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="str">
+        <f>CONCATENATE(" # What are some common mutations of ",B11,"?")</f>
+        <v xml:space="preserve"> # What are some common mutations of GRIK3?</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="str">
+        <f>CONCATENATE("There are ",B13," well known variants in ",B11,": ",B14,", [C36983994T](https://www.ncbi.nlm.nih.gov/pubmed/27835969), and [A7783504C](https://www.ncbi.nlm.nih.gov/pubmed/26859813).")</f>
+        <v>There are 3 well known variants in GRIK3: [T928G](https://www.ncbi.nlm.nih.gov/gene?Db=gene&amp;Cmd=ShowDetailView&amp;TermToSearch=2899) [(Ser310Ala)](https://www.ncbi.nlm.nih.gov/pubmed/11986986) [polymorphism](https://www.ncbi.nlm.nih.gov/pubmed/25054019?dopt=Abstract), [C36983994T](https://www.ncbi.nlm.nih.gov/pubmed/27835969), and [A7783504C](https://www.ncbi.nlm.nih.gov/pubmed/26859813).</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="C16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="str">
+        <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B17,CHAR(34)," name=",CHAR(34),B18,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Variant hgvs="NC000001_1.11:g.2222T&gt;G" name="T928G"&gt; </v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B11," gene from ",B19," to ",B20," resulting in incorrect ",B7," function.  This substitution of a single nucleotide is known as a missense variant.")</f>
+        <v xml:space="preserve">    This variant is a change at a specific point in the GRIK3 gene from thymine (T) to guanine (G) resulting in incorrect protein function.  This substitution of a single nucleotide is known as a missense variant.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="str">
+        <f>"&lt;/Variant&gt;"</f>
+        <v>&lt;/Variant&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="str">
+        <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B23,CHAR(34)," name=",CHAR(34),B24,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Variant hgvs="NC_000001.11:g.36983994C&gt;T" name="C36983994T"&gt; </v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="str">
+        <f>"cytosine (C)"</f>
+        <v>cytosine (C)</v>
+      </c>
+      <c r="C25" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B11," gene from ",B25," to ",B26," resulting in incorrect ",B7," function.  This substitution of a single nucleotide is known as a missense variant.")</f>
+        <v xml:space="preserve">    This variant is a change at a specific point in the GRIK3 gene from cytosine (C) to thymine (T) resulting in incorrect protein function.  This substitution of a single nucleotide is known as a missense variant.</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="C27" t="str">
+        <f>"&lt;/Variant&gt;"</f>
+        <v>&lt;/Variant&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="C29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="str">
+        <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B30,CHAR(34)," name=",CHAR(34),B31,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Variant hgvs="NC_000002.11:g.7783504A&gt;C" name="A7783504C"&gt; </v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B11," gene from ",B32," to ",B33," resulting in incorrect ",B7," function.  This substitution of a single nucleotide is known as a missense variant.")</f>
+        <v xml:space="preserve">    This variant is a change at a specific point in the GRIK3 gene from adenine (A) to cytosine (C) resulting in incorrect protein function.  This substitution of a single nucleotide is known as a missense variant.</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="str">
+        <f>"cytosine (C)"</f>
+        <v>cytosine (C)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="C34" t="str">
+        <f>"&lt;/Variant&gt;"</f>
+        <v>&lt;/Variant&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="C35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B36,B37,";",B38,CHAR(34)," name=",CHAR(34),B18,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC000001_1.11:g.[2222T&gt;G];[2222=]" name="T928G"&gt; </v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="str">
+        <f>CONCATENATE("People with this variant have one copy of the ",B18," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have one copy of the T928G variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="str">
+        <f>CONCATENATE("         ",B39)</f>
+        <v xml:space="preserve">         People with this variant have one copy of the T928G variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="C44" t="str">
+        <f>CONCATENATE("         ",B40)</f>
+        <v xml:space="preserve">         You are at greater risk for schizophrenia, depression, and glutamate problems.  See below for more information.</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="C48" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B41," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=43 /&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="C49" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="str">
+        <f>CONCATENATE("People with this variant have two copies of the ",B18," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have two copies of the T928G variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C50" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B36,B37,";",B37,CHAR(34)," name=",CHAR(34),B18,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC000001_1.11:g.[2222T&gt;G];[2222T&gt;G]" name="T928G"&gt; </v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="C54" t="str">
+        <f>CONCATENATE("         ",B50)</f>
+        <v xml:space="preserve">         People with this variant have two copies of the T928G variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="C58" t="str">
+        <f>CONCATENATE("         ",B51)</f>
+        <v xml:space="preserve">         You are at greater risk for schizophrenia, depression, and glutamate problems.  See below for more information.</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="C60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="C62" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B52," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=19.9 /&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="C63" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" t="str">
+        <f>CONCATENATE("Your ",B11," has no variants. A normal gene is referred to as a ",CHAR(34),"wildtype",CHAR(34)," gene.")</f>
+        <v>Your GRIK3 has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+      <c r="C64" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B36,B38,";",B38,CHAR(34)," name=",CHAR(34),B18,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC000001_1.11:g.[2222=];[2222=]" name="T928G"&gt; </v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" t="str">
+        <f>"No medical therapies are indicated at the moment."</f>
+        <v>No medical therapies are indicated at the moment.</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66">
+        <v>37.1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="C68" t="str">
+        <f>CONCATENATE("         ",B64)</f>
+        <v xml:space="preserve">         Your GRIK3 has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="C72" t="str">
+        <f>CONCATENATE("         ",B65)</f>
+        <v xml:space="preserve">         No medical therapies are indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="C74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="C76" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B66," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=37.1 /&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="C77" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="C78" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B79,B80,";",B81,CHAR(34)," name=",CHAR(34),B74,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.11:g[7783504A&gt;C];[7783504=]" name=""&gt; </v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" t="str">
+        <f>CONCATENATE("People with this variant have one copy of the ",B24," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have one copy of the C36983994T variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" t="str">
+        <f>CONCATENATE("         ",B82)</f>
+        <v xml:space="preserve">         People with this variant have one copy of the C36983994T variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B84">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="C87" t="str">
+        <f>CONCATENATE("         ",B83)</f>
+        <v xml:space="preserve">         People with this variant have an increased risk of CFS.  See below for more information.</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+      <c r="C89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="C91" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B84," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=15.8 /&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="C92" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B93" t="str">
+        <f>CONCATENATE("People with this variant have two copies of the ",B24," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have two copies of the C36983994T variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C93" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B79,B80,";",B80,CHAR(34)," name=",CHAR(34),B74,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.11:g[7783504A&gt;C];[7783504A&gt;C]" name=""&gt; </v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B94" t="str">
+        <f>"No medical therapies are indicated at the moment."</f>
+        <v>No medical therapies are indicated at the moment.</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95">
+        <v>4.7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="C97" t="str">
+        <f>CONCATENATE("         ",B93)</f>
+        <v xml:space="preserve">         People with this variant have two copies of the C36983994T variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+      <c r="C101" t="str">
+        <f>CONCATENATE("         ",B94)</f>
+        <v xml:space="preserve">         No medical therapies are indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="C103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="C105" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B95," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=4.7 /&gt;</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="C106" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B107" t="str">
+        <f>CONCATENATE("Your ",B11," has no variants. A normal gene is referred to as a ",CHAR(34),"wildtype",CHAR(34)," gene.")</f>
+        <v>Your GRIK3 has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+      <c r="C107" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B79,B81,";",B81,CHAR(34)," name=",CHAR(34),B74,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.11:g[7783504=];[7783504=]" name=""&gt; </v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B108" t="str">
+        <f>"No medical therapies are indicated at the moment."</f>
+        <v>No medical therapies are indicated at the moment.</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B109">
+        <v>79.5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+      <c r="C111" t="str">
+        <f>CONCATENATE("         ",B107)</f>
+        <v xml:space="preserve">         Your GRIK3 has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="6"/>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
+      <c r="C115" t="str">
+        <f>CONCATENATE("         ",B108)</f>
+        <v xml:space="preserve">         No medical therapies are indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="C117" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="C119" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B109," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=79.5 /&gt;</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="C120" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+      <c r="C121" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C122" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B122,B123,";",B124,CHAR(34)," name=",CHAR(34),B74,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000001.11:g.[36983994C&gt;T];[36983994=]" name=""&gt; </v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C124" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B125" t="str">
+        <f>CONCATENATE("People with this variant have one copy of the ",B31," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have one copy of the A7783504C variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B126" t="s">
+        <v>81</v>
+      </c>
+      <c r="C126" t="str">
+        <f>CONCATENATE("         ",B125)</f>
+        <v xml:space="preserve">         People with this variant have one copy of the A7783504C variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B127">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="5"/>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="6"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="6"/>
+      <c r="C130" t="str">
+        <f>CONCATENATE("         ",B126)</f>
+        <v xml:space="preserve">         People with this variant have an increased risk of CFS.  See below for more information.</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="6"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="6"/>
+      <c r="C132" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="5"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="5"/>
+      <c r="C134" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B127," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=1.8 /&gt;</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="5"/>
+      <c r="C135" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B136" t="str">
+        <f>CONCATENATE("People with this variant have two copies of the ",B31," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have two copies of the A7783504C variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C136" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B122,B123,";",B123,CHAR(34)," name=",CHAR(34),B74,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000001.11:g.[36983994C&gt;T];[36983994C&gt;T]" name=""&gt; </v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B137" t="str">
+        <f>"No medical therapies are indicated at the moment."</f>
+        <v>No medical therapies are indicated at the moment.</v>
+      </c>
+      <c r="C137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B138">
+        <v>0.5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="6"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="5"/>
+      <c r="C140" t="str">
+        <f>CONCATENATE("         ",B136)</f>
+        <v xml:space="preserve">         People with this variant have two copies of the A7783504C variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="6"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="6"/>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="6"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="6"/>
+      <c r="C144" t="str">
+        <f>CONCATENATE("         ",B137)</f>
+        <v xml:space="preserve">         No medical therapies are indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="6"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="5"/>
+      <c r="C146" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="5"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="5"/>
+      <c r="C148" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B138," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=0.5 /&gt;</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="5"/>
+      <c r="C149" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B150" t="str">
+        <f>CONCATENATE("Your ",B11," has no variants. A normal gene is referred to as a ",CHAR(34),"wildtype",CHAR(34)," gene.")</f>
+        <v>Your GRIK3 has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+      <c r="C150" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B122,B124,";",B124,CHAR(34)," name=",CHAR(34),B74,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000001.11:g.[36983994=];[36983994=]" name=""&gt; </v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B151" t="str">
+        <f>"No medical therapies are indicated at the moment."</f>
+        <v>No medical therapies are indicated at the moment.</v>
+      </c>
+      <c r="C151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B152">
+        <v>97.8</v>
+      </c>
+      <c r="C152" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="5"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="6"/>
+      <c r="C154" t="str">
+        <f>CONCATENATE("         ",B150)</f>
+        <v xml:space="preserve">         Your GRIK3 has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="6"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="6"/>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="6"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="6"/>
+      <c r="C158" t="str">
+        <f>CONCATENATE("         ",B151)</f>
+        <v xml:space="preserve">         No medical therapies are indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="5"/>
+      <c r="C160" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="5"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="5"/>
+      <c r="C162" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B152," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=97.8 /&gt;</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="5"/>
+      <c r="C163" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B164" t="str">
+        <f>CONCATENATE("Your ",B11," has an unknown variant.")</f>
+        <v>Your GRIK3 has an unknown variant.</v>
+      </c>
+      <c r="C164" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),"unknown",CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="unknown"&gt; </v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B165" t="str">
+        <f>"The effect of this variant is unknown."</f>
+        <v>The effect of this variant is unknown.</v>
+      </c>
+      <c r="C165" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="6"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="6"/>
+      <c r="C168" t="str">
+        <f>CONCATENATE("         ",B164)</f>
+        <v xml:space="preserve">         Your GRIK3 has an unknown variant.</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="6"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="6"/>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="6"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="5"/>
+      <c r="C172" t="str">
+        <f>CONCATENATE("         ",B165)</f>
+        <v xml:space="preserve">         The effect of this variant is unknown.</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="6"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="5"/>
+      <c r="C174" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="5"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="5"/>
+      <c r="C176" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B166," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=0 /&gt;</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="5"/>
+      <c r="C177" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B178" t="str">
+        <f>CONCATENATE("Your ",B11," has no variants. A normal gene is referred to as a ",CHAR(34),"wildtype",CHAR(34)," gene.")</f>
+        <v>Your GRIK3 has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+      <c r="C178" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),"wildtype",CHAR(34),"&gt;")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="wildtype"&gt;</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B179" t="str">
+        <f>"No medical therapies are indicated at the moment."</f>
+        <v>No medical therapies are indicated at the moment.</v>
+      </c>
+      <c r="C179" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B180">
+        <v>37.1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="6"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="6"/>
+      <c r="C182" t="str">
+        <f>CONCATENATE("         ",B178)</f>
+        <v xml:space="preserve">         Your GRIK3 has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="6"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="6"/>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="6"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="6"/>
+      <c r="C186" t="str">
+        <f>CONCATENATE("         ",B179)</f>
+        <v xml:space="preserve">         No medical therapies are indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="6"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="6"/>
+      <c r="C188" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="5"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="6"/>
+      <c r="C190" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B180," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=37.1 /&gt;</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="6"/>
+      <c r="C191" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="6"/>
+      <c r="C192" t="str">
+        <f>"&lt;/GeneAnalysis&gt;"</f>
+        <v>&lt;/GeneAnalysis&gt;</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="6"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="5"/>
+      <c r="C194" t="str">
+        <f>CONCATENATE("# How do changes in ",B11," affect people?")</f>
+        <v># How do changes in GRIK3 affect people?</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="5"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B196" t="s">
+        <v>59</v>
+      </c>
+      <c r="C196" t="str">
+        <f>B196</f>
+        <v>The variants in GRIK3 have strong associations with increased risk of schizophrenia, but for most patients this may not change treatment for CFS.  However, its variant’s association with glutamate and other neurological issues may interact with other genes, so we have included it in this disease panel.</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="5"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="5"/>
+      <c r="B198" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C198" t="str">
+        <f>B198</f>
+        <v xml:space="preserve">[This gene creates a protein that helps form receptors for glutamate that act as excitatory neurotransmitters in your brain and nervous system.](https://www.ncbi.nlm.nih.gov/gene?Db=gene&amp;Cmd=ShowDetailView&amp;TermToSearch=2899)  Excitatory transmitters increase the chance that the neuron will fire, [enhancing electrical flow among brain cells.](https://www.nimh.nih.gov/health/educational-resources/brain-basics/brain-basics.shtml)  Glutamate is the most important transmitter for normal brain function, but [elevated levels are toxic to neurons.](https://www.ncbi.nlm.nih.gov/books/NBK10807/) </v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="5"/>
+      <c r="B199" s="8"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B200" t="s">
+        <v>63</v>
+      </c>
+      <c r="C200" t="str">
+        <f>B200</f>
+        <v>GRIK3 Ser310Ala polymorphism has been linked to [schizophrenia](https://www.ncbi.nlm.nih.gov/pubmed/19921975/) and [major depression.](https://www.ncbi.nlm.nih.gov/pubmed/16958029)  The Ser310Ala allele in homozygosity is associated with higher scores in [harm avoidance, anticipatory worry, and shyness, with lower scores in exploratory excitability, responsibility, resourcefulness, helpfulness, compassion, self-directedness, and cooperativeness.](https://www.ncbi.nlm.nih.gov/pubmed/19221446/) This pattern of scores is akin to that observed in [depressed patients.](https://www.ncbi.nlm.nih.gov/pubmed/19221446/)  GRIK3 rs6691840 polymorphism was found to increase the risk of [schizophrenia](https://www.ncbi.nlm.nih.gov/pubmed/19921975/) by [30%.](https://www.ncbi.nlm.nih.gov/pubmed/25054019?dopt=Abstract)  Microdeletions have also been indicated in [severe developmental delays.](https://www.ncbi.nlm.nih.gov/pubmed/24449200/)</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="5"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="5"/>
+      <c r="B202" t="s">
+        <v>83</v>
+      </c>
+      <c r="C202" t="str">
+        <f>B202</f>
+        <v>Two genotypes of GRIK3 are associated with CFS, the heterozygous A:C [A7783504C](https://www.ncbi.nlm.nih.gov/pubmed/26859813) and the heterozygous C:T [C36983994T](https://www.ncbi.nlm.nih.gov/pubmed/27835969). A:C A7783504C was found in 71.4% of CFS patients, compared with 2.6% of healthy patients.  C:T C36983994T was found in 90.5% of CFS patients, compared with 21.1% of healthy patients.</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="5"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="5"/>
+      <c r="C204" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="5"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="6"/>
+      <c r="B206" t="s">
+        <v>61</v>
+      </c>
+      <c r="C206" t="str">
+        <f>B206</f>
+        <v>CFS is linked to improper Glutamate:GABA balance, as well as exposure to extracellular glutamate caused by neuroinflammatory stimuli.  Sustained exposure to extracellular glutamate in CFS patients causes [sickness behavior, neurotoxicity, stress, and peripheral nervous sensitivity.](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5314655/)</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="6"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>64</v>
+      </c>
+      <c r="C208" t="str">
+        <f>B208</f>
+        <v xml:space="preserve">Helpful dietary supplements may include:  [Omega-3 PUFAs, CoQ10, N-acetylcysteine, vitamin B12, curcumin, zinc, magnesium, L-Taurine, and L-carnitine.](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5314655/)  </v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>65</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C210" t="str">
+        <f>CONCATENATE("&lt;symptoms ",B210," /&gt;")</f>
+        <v>&lt;symptoms depression, stress, problems with thinking or memory, brain fog, pain /&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615DA66C-3F94-445F-8DEB-3C5332C0AD8D}">
+  <dimension ref="A1:C410"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" style="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("# What does the ",B2," gene do?")</f>
+        <v># What does the TPRM8 gene do?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="str">
+        <f>B4</f>
+        <v>The TRPM8 gene encodes a cation channel that allows the movement of sodium, potassium, calcium, and cesium across plasma barriers activated by [low temperatures](https://www.ncbi.nlm.nih.gov/pubmed/14757700?dopt=Abstract).  It allows the body to detect [temperature
+changes](https://www.ncbi.nlm.nih.gov/pubmed/17217067), respond to cold, balance calcium in the body, and feel the cooling effects of menthol.   Variants in TRPM8 are associated with [breast](https://www.ncbi.nlm.nih.gov/pubmed/20482834), [pancreatic](https://www.ncbi.nlm.nih.gov/pubmed/27038374), [lung](https://www.ncbi.nlm.nih.gov/pubmed/24037916), and [prostate](https://www.ncbi.nlm.nih.gov/pubmed/25065497) cancer.  Additional issues include increased susceptibility to [metabolic syndrome](https://www.ncbi.nlm.nih.gov/pubmed/25967713), [migraines](https://www.ncbi.nlm.nih.gov/pubmed/23294458?dopt=Abstract), [alcohol dependence](https://www.ncbi.nlm.nih.gov/pubmed/23942779?dopt=Abstract), [COPD](https://www.ncbi.nlm.nih.gov/pubmed/27789940), [pain](https://www.ncbi.nlm.nih.gov/pubmed/22072275?dopt=Abstract) and [cold sensitivity](https://www.ncbi.nlm.nih.gov/pubmed/21542321?dopt=Abstract), [asthma](https://www.ncbi.nlm.nih.gov/pubmed/26272603), and [inflammation](https://www.ncbi.nlm.nih.gov/pubmed/26660531).  Other variants reduce natural killer cell function in the immune system and are associated with [CFS](https://www.ncbi.nlm.nih.gov/pubmed/27099524).</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="28"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="27">
+        <v>2</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE("This gene is located on chromosome ",B6,".  The ",B7," it creates acts in your ",B8)</f>
+        <v>This gene is located on chromosome 2.  The cation channel it creates acts in your nervous, immune, and sensory systems</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" t="str">
+        <f>CONCATENATE("&lt;TissueList ",B9," /&gt;")</f>
+        <v>&lt;TissueList brain, bone marrow and immune system, circulatory and cardiovascular system, respiratory system and lung /&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="32"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="str">
+        <f>CONCATENATE("&lt;GeneAnalysis gene=",CHAR(34),B11,CHAR(34)," interval=",CHAR(34),B12,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">&lt;GeneAnalysis gene="TPRM8" interval=" NC_000002.12 :g.233917342_234019522"&gt; </v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="27">
+        <v>5</v>
+      </c>
+      <c r="C13" t="str">
+        <f>CONCATENATE(" # What are some common mutations of ",B11,"?")</f>
+        <v xml:space="preserve"> # What are some common mutations of TPRM8?</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="str">
+        <f>CONCATENATE("There are ",B13," well known variants in ",B11,": ",B21,", ",B27,", ",B33,", ",B39,", and ",B45,".")</f>
+        <v>There are 5 well known variants in TPRM8: [G3264+630A](https://www.ncbi.nlm.nih.gov/pubmed/27099524), [G3264+2567A](https://www.ncbi.nlm.nih.gov/pubmed/27099524), [G750C](https://www.ncbi.nlm.nih.gov/pubmed/22072275?dopt=Abstract), [T-990C](https://www.ncbi.nlm.nih.gov/pubmed/27099524), and [A7783504C](https://www.ncbi.nlm.nih.gov/pubmed/27835969).</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="C16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" t="str">
+        <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B17,CHAR(34)," name=",CHAR(34),B18,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Variant hgvs="NC_000002.12:g.234008733G&gt;A" name="G3264+630A"&gt; </v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B11," gene from ",B19," to ",B20," resulting in incorrect ",B7," function.  This substitution of a single nucleotide is known as a missense variant.")</f>
+        <v xml:space="preserve">    This variant is a change at a specific point in the TPRM8 gene from guanine (G) to adenine (A) resulting in incorrect cation channel function.  This substitution of a single nucleotide is known as a missense variant.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" t="str">
+        <f>"&lt;/Variant&gt;"</f>
+        <v>&lt;/Variant&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" t="str">
+        <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B23,CHAR(34)," name=",CHAR(34),B24,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Variant hgvs="NC_000002.12:g.234010670G&gt;A" name="G3264+2567A"&gt; </v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B11," gene from ",B25," to ",B26," resulting in incorrect ",B7," function.  This substitution of a single nucleotide is known as a missense variant.")</f>
+        <v xml:space="preserve">    This variant is a change at a specific point in the TPRM8 gene from guanine (G) to adenine (A) resulting in incorrect cation channel function.  This substitution of a single nucleotide is known as a missense variant.</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" t="str">
+        <f>"&lt;/Variant&gt;"</f>
+        <v>&lt;/Variant&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" t="str">
+        <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B29,CHAR(34)," name=",CHAR(34),B30,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Variant hgvs="NC_000002.12:g.233945906G&gt;C" name="G750C"&gt; </v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B11," gene from ",B31," to ",B32," resulting in incorrect ",B7," function.  This substitution of a single nucleotide is known as a missense variant.")</f>
+        <v xml:space="preserve">    This variant is a change at a specific point in the TPRM8 gene from guanine (G) to cytosine (C) resulting in incorrect cation channel function.  This substitution of a single nucleotide is known as a missense variant.</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="27" t="str">
+        <f>"cytosine (C)"</f>
+        <v>cytosine (C)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" t="str">
+        <f>"&lt;/Variant&gt;"</f>
+        <v>&lt;/Variant&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="C34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" t="str">
+        <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B35,CHAR(34)," name=",CHAR(34),B36,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Variant hgvs="NC_000002.12:g.233916448T&gt;C" name="T-990C"&gt; </v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B11," gene from ",B37," to ",B38," resulting in incorrect ",B7," function.  This substitution of a single nucleotide is known as a missense variant.")</f>
+        <v xml:space="preserve">    This variant is a change at a specific point in the TPRM8 gene from thymine (T) to cytosine (C) resulting in incorrect cation channel function.  This substitution of a single nucleotide is known as a missense variant.</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="27" t="str">
+        <f>"cytosine (C)"</f>
+        <v>cytosine (C)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" t="str">
+        <f>"&lt;/Variant&gt;"</f>
+        <v>&lt;/Variant&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="C40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" t="str">
+        <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B41,CHAR(34)," name=",CHAR(34),B42,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Variant hgvs="NC_000002.12:g.233974736A&gt;G" name="A7783504C"&gt; </v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B11," gene from ",B43," to ",B44," resulting in incorrect ",B7," function.  This substitution of a single nucleotide is known as a missense variant.")</f>
+        <v xml:space="preserve">    This variant is a change at a specific point in the TPRM8 gene from adenine (A) to guanine (G) resulting in incorrect cation channel function.  This substitution of a single nucleotide is known as a missense variant.</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" t="str">
+        <f>"&lt;/Variant&gt;"</f>
+        <v>&lt;/Variant&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="31"/>
+      <c r="B46" s="32"/>
+    </row>
+    <row r="47" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="31"/>
+      <c r="B47" s="32"/>
+      <c r="C47" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B48,B49,";",B50,CHAR(34)," name=",CHAR(34),B18,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC000001_1.11:g.[234008733G&gt;A];[234008733=]" name="G3264+630A"&gt; </v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="27" t="str">
+        <f>CONCATENATE("People with this variant have one copy of the ",B21," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have one copy of the [G3264+630A](https://www.ncbi.nlm.nih.gov/pubmed/27099524) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" t="str">
+        <f>CONCATENATE("         ",B51)</f>
+        <v xml:space="preserve">         People with this variant have one copy of the [G3264+630A](https://www.ncbi.nlm.nih.gov/pubmed/27099524) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="27">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="C56" t="str">
+        <f>CONCATENATE("         ",B52)</f>
+        <v xml:space="preserve">         You are in the Severe Risk category.  See below for more information</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="C58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="C60" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B53," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=28.2 /&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="C61" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="27" t="str">
+        <f>CONCATENATE("People with this variant have two copies of the ",B21," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have two copies of the [G3264+630A](https://www.ncbi.nlm.nih.gov/pubmed/27099524) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C62" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B48,B49,";",B49,CHAR(34)," name=",CHAR(34),B18,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC000001_1.11:g.[234008733G&gt;A];[234008733G&gt;A]" name="G3264+630A"&gt; </v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="27">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="C66" t="str">
+        <f>CONCATENATE("         ",B62)</f>
+        <v xml:space="preserve">         People with this variant have two copies of the [G3264+630A](https://www.ncbi.nlm.nih.gov/pubmed/27099524) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="C70" t="str">
+        <f>CONCATENATE("         ",B63)</f>
+        <v xml:space="preserve">         Your variant is not associated with any loss of function</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="C72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="C74" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B64," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=10 /&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="C75" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="27" t="str">
+        <f>CONCATENATE("Your ",B11," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wildtype",CHAR(34)," gene.")</f>
+        <v>Your TPRM8 gene has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+      <c r="C76" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B48,B50,";",B50,CHAR(34)," name=",CHAR(34),B18,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC000001_1.11:g.[234008733=];[234008733=]" name="G3264+630A"&gt; </v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" t="str">
+        <f>"No medical therapies are indicated at the moment."</f>
+        <v>No medical therapies are indicated at the moment.</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" s="27">
+        <v>61.8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="C80" t="str">
+        <f>CONCATENATE("         ",B76)</f>
+        <v xml:space="preserve">         Your TPRM8 gene has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="C84" t="str">
+        <f>CONCATENATE("         ",B77)</f>
+        <v xml:space="preserve">         No medical therapies are indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="C86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="C88" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B78," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=61.8 /&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="C89" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="C90" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C91" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B91,B92,";",B93,CHAR(34)," name=",CHAR(34),B24,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.12:g.[234010670G&gt;A];[234010670=]" name="G3264+2567A"&gt; </v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B94" s="27" t="str">
+        <f>CONCATENATE("People with this variant have one copy of the ",B27," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have one copy of the [G3264+2567A](https://www.ncbi.nlm.nih.gov/pubmed/27099524) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C95" t="str">
+        <f>CONCATENATE("         ",B94)</f>
+        <v xml:space="preserve">         People with this variant have one copy of the [G3264+2567A](https://www.ncbi.nlm.nih.gov/pubmed/27099524) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" s="27">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+      <c r="C99" t="str">
+        <f>CONCATENATE("         ",B95)</f>
+        <v xml:space="preserve">         You are in the Severe Risk category.  See below for more information.</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+      <c r="C101" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="C103" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B96," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=43.2 /&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="C104" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="27" t="str">
+        <f>CONCATENATE("People with this variant have two copies of the ",B27," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have two copies of the [G3264+2567A](https://www.ncbi.nlm.nih.gov/pubmed/27099524) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C105" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B91,B92,";",B92,CHAR(34)," name=",CHAR(34),B24,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.12:g.[234010670G&gt;A];[234010670G&gt;A]" name="G3264+2567A"&gt; </v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B107" s="27">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="C107" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="6"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="C109" t="str">
+        <f>CONCATENATE("         ",B105)</f>
+        <v xml:space="preserve">         People with this variant have two copies of the [G3264+2567A](https://www.ncbi.nlm.nih.gov/pubmed/27099524) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="6"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="6"/>
+      <c r="C113" t="str">
+        <f>CONCATENATE("         ",B106)</f>
+        <v xml:space="preserve">         No medical therapies are indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="C115" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="C117" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B107," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=19.6 /&gt;</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="C118" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" s="27" t="str">
+        <f>CONCATENATE("Your ",B11," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wildtype",CHAR(34)," gene.")</f>
+        <v>Your TPRM8 gene has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+      <c r="C119" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B91,B93,";",B93,CHAR(34)," name=",CHAR(34),B24,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.12:g.[234010670=];[234010670=]" name="G3264+2567A"&gt; </v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B121" s="27">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="C121" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="6"/>
+      <c r="C123" t="str">
+        <f>CONCATENATE("         ",B119)</f>
+        <v xml:space="preserve">         Your TPRM8 gene has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="6"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="6"/>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="6"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="6"/>
+      <c r="C127" t="str">
+        <f>CONCATENATE("         ",B120)</f>
+        <v xml:space="preserve">         No medical therapies are indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="5"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+      <c r="C129" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+      <c r="C131" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B121," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=37.2 /&gt;</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+      <c r="C132" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="5"/>
+      <c r="C133" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C134" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B134,B135,";",B136,CHAR(34)," name=",CHAR(34),B30,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.12:g.[233945906G&gt;C];[233945906=]" name="G750C"&gt; </v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B135" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B136" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C136" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B137" s="27" t="str">
+        <f>CONCATENATE("People with this variant have one copy of the ",B30," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have one copy of the G750C variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C138" t="str">
+        <f>CONCATENATE("         ",B137)</f>
+        <v xml:space="preserve">         People with this variant have one copy of the G750C variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B139" s="27">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="5"/>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="6"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="6"/>
+      <c r="C142" t="str">
+        <f>CONCATENATE("         ",B138)</f>
+        <v xml:space="preserve">         This variant is not associated with Moderate Loss of Function.</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="6"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="6"/>
+      <c r="C144" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="5"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="5"/>
+      <c r="C146" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B139," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=22.1 /&gt;</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="5"/>
+      <c r="C147" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B148" s="27" t="str">
+        <f>CONCATENATE("People with this variant have two copies of the ",B30," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have two copies of the G750C variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C148" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B134,B135,";",B135,CHAR(34)," name=",CHAR(34),B30,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.12:g.[233945906G&gt;C];[233945906G&gt;C]" name="G750C"&gt; </v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B149" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C149" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B150" s="27">
+        <v>7.5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="6"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="5"/>
+      <c r="C152" t="str">
+        <f>CONCATENATE("         ",B148)</f>
+        <v xml:space="preserve">         People with this variant have two copies of the G750C variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="6"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="6"/>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="6"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="6"/>
+      <c r="C156" t="str">
+        <f>CONCATENATE("         ",B149)</f>
+        <v xml:space="preserve">         You are in the Severe Loss of Function category.  See below for more information.</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="6"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
+      <c r="C158" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="5"/>
+      <c r="C160" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B150," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=7.5 /&gt;</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="5"/>
+      <c r="C161" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B162" s="27" t="str">
+        <f>CONCATENATE("Your ",B11," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wildtype",CHAR(34)," gene.")</f>
+        <v>Your TPRM8 gene has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+      <c r="C162" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B134,B136,";",B136,CHAR(34)," name=",CHAR(34),B30,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.12:g.[233945906=];[233945906=]" name="G750C"&gt; </v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B163" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B164" s="27">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="C164" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="5"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="6"/>
+      <c r="C166" t="str">
+        <f>CONCATENATE("         ",B162)</f>
+        <v xml:space="preserve">         Your TPRM8 gene has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="6"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="6"/>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="6"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="6"/>
+      <c r="C170" t="str">
+        <f>CONCATENATE("         ",B163)</f>
+        <v xml:space="preserve">         No medical therapies are indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="5"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="5"/>
+      <c r="C172" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="5"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="5"/>
+      <c r="C174" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B164," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=70.4 /&gt;</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="5"/>
+      <c r="C175" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="5"/>
+      <c r="C176" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C177" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B177,B178,";",B179,CHAR(34)," name=",CHAR(34),B36,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.12:g.[233916448T&gt;C];[233916448=]" name="T-990C"&gt; </v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B178" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B179" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C179" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B180" s="27" t="str">
+        <f>CONCATENATE("People with this variant have one copy of the ",B39," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have one copy of the [T-990C](https://www.ncbi.nlm.nih.gov/pubmed/27099524) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C180" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B181" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C181" t="str">
+        <f>CONCATENATE("         ",B180)</f>
+        <v xml:space="preserve">         People with this variant have one copy of the [T-990C](https://www.ncbi.nlm.nih.gov/pubmed/27099524) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B182" s="27">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="5"/>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="6"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="6"/>
+      <c r="C185" t="str">
+        <f>CONCATENATE("         ",B181)</f>
+        <v xml:space="preserve">         This variant is not associated with increased risk.</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="6"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="6"/>
+      <c r="C187" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="5"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="5"/>
+      <c r="C189" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B182," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=49.7 /&gt;</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="5"/>
+      <c r="C190" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B191" s="27" t="str">
+        <f>CONCATENATE("People with this variant have two copies of the ",B39," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have two copies of the [T-990C](https://www.ncbi.nlm.nih.gov/pubmed/27099524) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C191" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B177,B178,";",B178,CHAR(34)," name=",CHAR(34),B36,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.12:g.[233916448T&gt;C];[233916448T&gt;C]" name="T-990C"&gt; </v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B192" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C192" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B193" s="27">
+        <v>30.4</v>
+      </c>
+      <c r="C193" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="6"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="5"/>
+      <c r="C195" t="str">
+        <f>CONCATENATE("         ",B191)</f>
+        <v xml:space="preserve">         People with this variant have two copies of the [T-990C](https://www.ncbi.nlm.nih.gov/pubmed/27099524) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="6"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="6"/>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="6"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="6"/>
+      <c r="C199" t="str">
+        <f>CONCATENATE("         ",B192)</f>
+        <v xml:space="preserve">         You are in the Severe Loss of Function category.  See below for more information.</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="6"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="5"/>
+      <c r="C201" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="5"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="5"/>
+      <c r="C203" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B193," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=30.4 /&gt;</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="5"/>
+      <c r="C204" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B205" s="27" t="str">
+        <f>CONCATENATE("Your ",B11," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wildtype",CHAR(34)," gene.")</f>
+        <v>Your TPRM8 gene has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+      <c r="C205" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B177,B179,";",B179,CHAR(34)," name=",CHAR(34),B36,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.12:g.[233916448=];[233916448=]" name="T-990C"&gt; </v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B206" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C206" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B207" s="27">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C207" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="5"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="6"/>
+      <c r="C209" t="str">
+        <f>CONCATENATE("         ",B205)</f>
+        <v xml:space="preserve">         Your TPRM8 gene has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="6"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="6"/>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="6"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="6"/>
+      <c r="C213" t="str">
+        <f>CONCATENATE("         ",B206)</f>
+        <v xml:space="preserve">         This variant is not associated with increased risk.</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="5"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="5"/>
+      <c r="C215" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="5"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="5"/>
+      <c r="C217" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B207," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=19.9 /&gt;</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="5"/>
+      <c r="C218" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="5"/>
+      <c r="C219" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="5"/>
+      <c r="C220" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C221" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B221,B222,";",B223,CHAR(34)," name=",CHAR(34),B42,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.12:g.[233974736A&gt;G];[233974736=]" name="A7783504C"&gt; </v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B222" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B223" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C223" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B224" s="27" t="str">
+        <f>CONCATENATE("People with this variant have one copy of the ",B45," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have one copy of the [A7783504C](https://www.ncbi.nlm.nih.gov/pubmed/27835969) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C224" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B225" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C225" t="str">
+        <f>CONCATENATE("         ",B224)</f>
+        <v xml:space="preserve">         People with this variant have one copy of the [A7783504C](https://www.ncbi.nlm.nih.gov/pubmed/27835969) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B226" s="27">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="5"/>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="6"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="6"/>
+      <c r="C229" t="str">
+        <f>CONCATENATE("         ",B225)</f>
+        <v xml:space="preserve">         People with this variant have an increased risk of CFS.  See below for more information.</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="6"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="6"/>
+      <c r="C231" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="5"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="5"/>
+      <c r="C233" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B226," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=14.2 /&gt;</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="5"/>
+      <c r="C234" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B235" s="27" t="str">
+        <f>CONCATENATE("People with this variant have two copies of the ",B45," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have two copies of the [A7783504C](https://www.ncbi.nlm.nih.gov/pubmed/27835969) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C235" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B221,B222,";",B222,CHAR(34)," name=",CHAR(34),B42,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.12:g.[233974736A&gt;G];[233974736A&gt;G]" name="A7783504C"&gt; </v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B236" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C236" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B237" s="27">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="C237" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="6"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="5"/>
+      <c r="C239" t="str">
+        <f>CONCATENATE("         ",B235)</f>
+        <v xml:space="preserve">         People with this variant have two copies of the [A7783504C](https://www.ncbi.nlm.nih.gov/pubmed/27835969) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="6"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="6"/>
+      <c r="C241" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="6"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="6"/>
+      <c r="C243" t="str">
+        <f>CONCATENATE("         ",B236)</f>
+        <v xml:space="preserve">         This variant is not associated with increased risk.</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="6"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="5"/>
+      <c r="C245" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="5"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="5"/>
+      <c r="C247" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B237," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=81.6 /&gt;</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="5"/>
+      <c r="C248" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B249" s="27" t="str">
+        <f>CONCATENATE("Your ",B11," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wildtype",CHAR(34)," gene.")</f>
+        <v>Your TPRM8 gene has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+      <c r="C249" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B221,B223,";",B223,CHAR(34)," name=",CHAR(34),B42,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.12:g.[233974736=];[233974736=]" name="A7783504C"&gt; </v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B250" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C250" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B251" s="27">
+        <v>4.2</v>
+      </c>
+      <c r="C251" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="5"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="6"/>
+      <c r="C253" t="str">
+        <f>CONCATENATE("         ",B249)</f>
+        <v xml:space="preserve">         Your TPRM8 gene has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="6"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="6"/>
+      <c r="C255" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="6"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="6"/>
+      <c r="C257" t="str">
+        <f>CONCATENATE("         ",B250)</f>
+        <v xml:space="preserve">         This variant is not associated with increased risk.</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="5"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="5"/>
+      <c r="C259" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="5"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="5"/>
+      <c r="C261" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B251," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=4.2 /&gt;</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="5"/>
+      <c r="C262" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B263" s="27" t="str">
+        <f>CONCATENATE("Your ",B11," has an unknown variant.")</f>
+        <v>Your TPRM8 has an unknown variant.</v>
+      </c>
+      <c r="C263" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),"unknown",CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="unknown"&gt; </v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B264" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C264" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C265" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="6"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="6"/>
+      <c r="C267" t="str">
+        <f>CONCATENATE("         ",B263)</f>
+        <v xml:space="preserve">         Your TPRM8 has an unknown variant.</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="6"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="6"/>
+      <c r="C269" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="6"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="5"/>
+      <c r="C271" t="str">
+        <f>CONCATENATE("         ",B264)</f>
+        <v xml:space="preserve">         The effect is unknown.</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="6"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="5"/>
+      <c r="C273" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="5"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="5"/>
+      <c r="C275" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B265," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage= /&gt;</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="5"/>
+      <c r="C276" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B277" s="27" t="str">
+        <f>CONCATENATE("Your ",B11," has no variants. A normal gene is referred to as a ",CHAR(34),"wildtype",CHAR(34)," gene.")</f>
+        <v>Your TPRM8 has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+      <c r="C277" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),"wildtype",CHAR(34),"&gt;")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="wildtype"&gt;</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B278" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C278" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C279" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="6"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="6"/>
+      <c r="C281" t="str">
+        <f>CONCATENATE("         ",B277)</f>
+        <v xml:space="preserve">         Your TPRM8 has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="6"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="6"/>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="6"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="6"/>
+      <c r="C285" t="str">
+        <f>CONCATENATE("         ",B278)</f>
+        <v xml:space="preserve">         This variant is not associated with increased risk.</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="6"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="6"/>
+      <c r="C287" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="5"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="6"/>
+      <c r="C289" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B279," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage= /&gt;</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="6"/>
+      <c r="C290" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="6"/>
+      <c r="C291" t="str">
+        <f>"&lt;/GeneAnalysis&gt;"</f>
+        <v>&lt;/GeneAnalysis&gt;</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="31"/>
+      <c r="B292" s="32"/>
+    </row>
+    <row r="293" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="34"/>
+      <c r="B293" s="32"/>
+      <c r="C293" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="34"/>
+      <c r="B294" s="32"/>
+      <c r="C294" s="6"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="5"/>
+      <c r="C295" t="str">
+        <f>CONCATENATE("# How do changes in ",B11," affect people?")</f>
+        <v># How do changes in TPRM8 affect people?</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="5"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B297" s="27" t="str">
+        <f>CONCATENATE("For the vast majority of people, the overall risk associated with the common ",B11," variants is small, and do not impact treatment. It is possible that variants in this gene interact with other gene variants, which is the reason for our inclusion of this gene in the gene panel.")</f>
+        <v>For the vast majority of people, the overall risk associated with the common TPRM8 variants is small, and do not impact treatment. It is possible that variants in this gene interact with other gene variants, which is the reason for our inclusion of this gene in the gene panel.</v>
+      </c>
+      <c r="C297" t="str">
+        <f>B297</f>
+        <v>For the vast majority of people, the overall risk associated with the common TPRM8 variants is small, and do not impact treatment. It is possible that variants in this gene interact with other gene variants, which is the reason for our inclusion of this gene in the gene panel.</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="5"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="5"/>
+      <c r="C299" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="5"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B301" s="27" t="str">
+        <f>CONCATENATE("The ",B11," ",B7,"s function normally.")</f>
+        <v>The TPRM8 cation channels function normally.</v>
+      </c>
+      <c r="C301" t="str">
+        <f>B301</f>
+        <v>The TPRM8 cation channels function normally.</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="5"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="5"/>
+      <c r="C303" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="5"/>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="5"/>
+      <c r="B305" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C305" t="str">
+        <f>B305</f>
+        <v>No therapies are medically indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="31"/>
+      <c r="B306" s="32"/>
+    </row>
+    <row r="307" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="34"/>
+      <c r="B307" s="32"/>
+      <c r="C307" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="34"/>
+      <c r="B308" s="32"/>
+      <c r="C308" s="6"/>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="5"/>
+      <c r="C309" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="5"/>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B311" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C311" t="str">
+        <f>B311</f>
+        <v>Natural killer cells (NKC) are a type of white blood cells found in the blood, bone marrow, spleen, and lymph nodes.  They kill viral infected cells and tumorous cells.  CFS patients have half the cellular efficiency of the normal population with a [17% cellular death rate](https://www.ncbi.nlm.nih.gov/pubmed/27099524).  The G3264+630A variant decreases gene expression in both the DNA and RNA, causing significant reduction in NKC activity.  This variant was 2X as common in [CFS patients at 82.1% with an odds ratio of 7.19.](https://www.ncbi.nlm.nih.gov/pubmed/27099524)</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="5"/>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="5"/>
+      <c r="C313" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="5"/>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="5"/>
+      <c r="B315" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C315" t="str">
+        <f>B315</f>
+        <v>Many dietary supplements have been found to increase or decrease natural killer cell function. 
+- [Resveratrol](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4855330/) stimulates the immune system in increase NKC activity, but sufficient body concentration can only be achieved through supplementation.  
+- [Myricetin](https://www.ncbi.nlm.nih.gov/pubmed/25075019), a flavonoid found in food and red wine, can increase NKC activity.
+- [Quercetin](https://www.ncbi.nlm.nih.gov/pubmed/19449452), a flavonoid in onions and fruits may improve NKC and T cell function.
+- [Histone deacetylase inhibitors (HDACi) including suberoylanilide hydroxamic acid and valproic acid](https://www.ncbi.nlm.nih.gov/pubmed/17349632/) impair NKC function and should be avoided.</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="31"/>
+      <c r="B317" s="32"/>
+    </row>
+    <row r="318" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="34"/>
+      <c r="B318" s="32"/>
+      <c r="C318" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="34"/>
+      <c r="B319" s="32"/>
+      <c r="C319" s="6"/>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="5"/>
+      <c r="C320" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="5"/>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B322" s="27" t="str">
+        <f>CONCATENATE("The fully functional ",B11," ",B7,"s allow normal natural killer cells (NKC) function with no increased risk of CFS.")</f>
+        <v>The fully functional TPRM8 cation channels allow normal natural killer cells (NKC) function with no increased risk of CFS.</v>
+      </c>
+      <c r="C322" t="str">
+        <f>B322</f>
+        <v>The fully functional TPRM8 cation channels allow normal natural killer cells (NKC) function with no increased risk of CFS.</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="5"/>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="5"/>
+      <c r="C324" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="5"/>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="5"/>
+      <c r="B326" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C326" t="str">
+        <f>B326</f>
+        <v>No therapies are medically indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="31"/>
+      <c r="B327" s="32"/>
+    </row>
+    <row r="328" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="34"/>
+      <c r="B328" s="32"/>
+      <c r="C328" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="34"/>
+      <c r="B329" s="32"/>
+      <c r="C329" s="6"/>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="5"/>
+      <c r="C330" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="5"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B332" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C332" t="str">
+        <f>B332</f>
+        <v>Natural killer cells (NKC) are a type of white blood cells found in the blood, bone marrow, spleen, and lymph nodes.  They kill viral infected cells and tumorous cells.  CFS patients have half the cellular efficiency of the normal population with a [17% cellular death rate](https://www.ncbi.nlm.nih.gov/pubmed/27099524).  The G3264+2567A variant decreases gene expression in both the DNA and RNA, causing significant reduction in NKC activity.  This variant was 2X as common in [CFS patients at 73.3% with an odds ratio of 3.56](https://www.ncbi.nlm.nih.gov/pubmed/27099524).</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="5"/>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="5"/>
+      <c r="C334" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="5"/>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="5"/>
+      <c r="B336" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C336" t="str">
+        <f>B336</f>
+        <v>Many dietary supplements have been found to increase or decrease natural killer cell function. 
+- [Resveratrol](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4855330/) stimulates the immune system in increase NKC activity, but sufficient body concentration can only be achieved through supplementation.  
+- [Myricetin](https://www.ncbi.nlm.nih.gov/pubmed/25075019), a flavonoid found in food and red wine, can increase NKC activity.
+- [Quercetin](https://www.ncbi.nlm.nih.gov/pubmed/19449452), a flavonoid in onions and fruits may improve NKC and T cell function.
+- [Histone deacetylase inhibitors (HDACi) including suberoylanilide hydroxamic acid and valproic acid](https://www.ncbi.nlm.nih.gov/pubmed/17349632/) impair NKC function and should be avoided.</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="31"/>
+      <c r="B337" s="32"/>
+    </row>
+    <row r="338" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="34"/>
+      <c r="B338" s="32"/>
+      <c r="C338" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="34"/>
+      <c r="B339" s="32"/>
+      <c r="C339" s="6"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="5"/>
+      <c r="C340" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="5"/>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B342" s="27" t="str">
+        <f>CONCATENATE("The ",B11," ",B7,"s function normally.")</f>
+        <v>The TPRM8 cation channels function normally.</v>
+      </c>
+      <c r="C342" t="str">
+        <f>B342</f>
+        <v>The TPRM8 cation channels function normally.</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="5"/>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="5"/>
+      <c r="C344" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="5"/>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="5"/>
+      <c r="B346" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C346" t="str">
+        <f>B346</f>
+        <v>No therapies are medically indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="31"/>
+      <c r="B347" s="32"/>
+    </row>
+    <row r="348" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="34"/>
+      <c r="B348" s="32"/>
+      <c r="C348" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="34"/>
+      <c r="B349" s="32"/>
+      <c r="C349" s="6"/>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="5"/>
+      <c r="C350" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="5"/>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B352" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C352" t="str">
+        <f>B352</f>
+        <v>The heterozygous GC variant has multiple effects.  Firstly, it causes [increased sensitivity to cold](https://www.ncbi.nlm.nih.gov/pubmed/21542321?dopt=Abstract) as well as increased [inflammation](https://www.ncbi.nlm.nih.gov/pubmed/26660531) due to improper temperature regulation.  It may also cause increased cold-induced airway hyperresponsiveness (CAH) in bronchial asthma (BA) patients.  As the TRPM8 gene regulates cold perception, improper function may lead to hyperstimulation and increased CAH events.  The GC genotype has an [odds ratio of 3.73](https://www.ncbi.nlm.nih.gov/pubmed/26272603), a decrease in forced expiratory volume.</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="5"/>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="5"/>
+      <c r="C354" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="5"/>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="5"/>
+      <c r="B356" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C356" t="str">
+        <f>B356</f>
+        <v>If possible, avoid cold air [below 25˚ C](http://www.uniprot.org/uniprot/Q7Z2W7). The carboxamide [WS-12](https://www.ncbi.nlm.nih.gov/pubmed/18930858)(a menthol derivative with much higher efficacy and potency) or [icilin](https://www.ncbi.nlm.nih.gov/pubmed/17517434) may protect against increased cold perception by upregulating the TRPM8 gene,
+reducing bronchial shock.  Other medications include [menthol and eucalyptol](https://www.ncbi.nlm.nih.gov/pubmed/14757700), but this variant causes [lower menthol efficacy](https://www.ncbi.nlm.nih.gov/pubmed/21542321?dopt=Abstract). Users should avoid alcohol and smoking.</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="31"/>
+      <c r="B357" s="32"/>
+    </row>
+    <row r="358" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="34"/>
+      <c r="B358" s="32"/>
+      <c r="C358" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="34"/>
+      <c r="B359" s="32"/>
+      <c r="C359" s="6"/>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="5"/>
+      <c r="C360" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="5"/>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B362" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C362" t="str">
+        <f>B362</f>
+        <v>The homozygous GG variant has greatly decreased gene function, causing greatly [increased sensitivity to cold](https://www.ncbi.nlm.nih.gov/pubmed/21542321?dopt=Abstract) and greatly increased [inflammation](https://www.ncbi.nlm.nih.gov/pubmed/26660531).  This may cause increased [asthmatic attacks](https://www.ncbi.nlm.nih.gov/pubmed/26272603) in cold weather and decreased lung function.</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="5"/>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="5"/>
+      <c r="C364" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="5"/>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="5"/>
+      <c r="B366" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C366" t="str">
+        <f>B366</f>
+        <v>Avoid cold air [below 25˚ C](http://www.uniprot.org/uniprot/Q7Z2W7). The carboxamide [WS-12](https://www.ncbi.nlm.nih.gov/pubmed/18930858)(a menthol derivative with much higher efficacy and potency) or [icilin](https://www.ncbi.nlm.nih.gov/pubmed/17517434) may protect against increased cold perception by upregulating the TRPM8 gene,
+reducing bronchial shock.  Other medications include [menthol and eucalyptol](https://www.ncbi.nlm.nih.gov/pubmed/14757700). Users should avoid alcohol and smoking.</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="31"/>
+      <c r="B367" s="32"/>
+    </row>
+    <row r="368" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="34"/>
+      <c r="B368" s="32"/>
+      <c r="C368" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="34"/>
+      <c r="B369" s="32"/>
+      <c r="C369" s="6"/>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="5"/>
+      <c r="C370" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="5"/>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B372" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C372" t="str">
+        <f>B372</f>
+        <v>TRPM8 a cold and cold-burning pain receptor linked to [migraines](https://www.ncbi.nlm.nih.gov/pubmed/23294458?dopt=Abstract),
+[neuropathic chronic pain](https://www.ncbi.nlm.nih.gov/pubmed/22072275?dopt=Abstract), and [inflammation](https://www.ncbi.nlm.nih.gov/pubmed/26660531).  It processes [cold-mediated pain relievers](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5541777/#R30) and may modulate pain sensation and set [vascular tone](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5541777/#R31), which may influence migraines. This C-990T (C;C) variant is protective, with a [0.7X lower risk](https://www.nature.com/articles/ng.856) for migraines, and the C-990T (C;T) variant is protective, with a [0.85X lower risk](https://www.nature.com/articles/ng.856) for migraines.</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="5"/>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="5"/>
+      <c r="C374" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="5"/>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="5"/>
+      <c r="B376" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C376" t="str">
+        <f>B376</f>
+        <v>No therapies are medically indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="31"/>
+      <c r="B377" s="32"/>
+    </row>
+    <row r="378" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="34"/>
+      <c r="B378" s="32"/>
+      <c r="C378" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="34"/>
+      <c r="B379" s="32"/>
+      <c r="C379" s="6"/>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="5"/>
+      <c r="C380" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="5"/>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B382" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C382" t="str">
+        <f>B382</f>
+        <v>TRPM8 a cold and cold-burning pain receptor linked to [migraines](https://www.ncbi.nlm.nih.gov/pubmed/23294458?dopt=Abstract),
+[neuropathic chronic pain](https://www.ncbi.nlm.nih.gov/pubmed/22072275?dopt=Abstract), and [inflammation](https://www.ncbi.nlm.nih.gov/pubmed/26660531).  It processes [cold-mediated pain relievers](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5541777/#R30) and may modulate pain sensation and set [vascular tone](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5541777/#R31), which may influence migraines. This variant increases the risk for migraines as compared to CC or CT.</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="5"/>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="5"/>
+      <c r="C384" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="5"/>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="5"/>
+      <c r="B386" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C386" t="str">
+        <f>B386</f>
+        <v>Many compounds may decrease pain due to TRMP8 variants.
+- [WS-12](https://www.ncbi.nlm.nih.gov/pubmed/18930858)(a menthol derivative) has much higher potency and is twice as efficient as menthol as therapy for chronic neuropathic pain
+- Cannabinoid receptors [CB1 and CB2](https://www.ncbi.nlm.nih.gov/pubmed/18511441) are associated with pain modulation, but smoking should be avoided to reduce COPD and lung cancer risk.
+- [Nerve growth factor](https://www.ncbi.nlm.nih.gov/pubmed/18511441) administered topically decreases thermal and mechanical pain
+Other therapies may include [antibodies, siRNA, gene therapy](https://www.ncbi.nlm.nih.gov/pubmed/18511441), and avoiding air [below 25˚ C](http://www.uniprot.org/uniprot/Q7Z2W7).</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="31"/>
+      <c r="B388" s="32"/>
+    </row>
+    <row r="389" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="34"/>
+      <c r="B389" s="32"/>
+      <c r="C389" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="34"/>
+      <c r="B390" s="32"/>
+      <c r="C390" s="6"/>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="5"/>
+      <c r="C391" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="5"/>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B393" s="27" t="str">
+        <f>CONCATENATE("The ",B11," ",B7,"s are fully functional with no increased risk of CFS.")</f>
+        <v>The TPRM8 cation channels are fully functional with no increased risk of CFS.</v>
+      </c>
+      <c r="C393" t="str">
+        <f>B393</f>
+        <v>The TPRM8 cation channels are fully functional with no increased risk of CFS.</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="5"/>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="5"/>
+      <c r="C395" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="5"/>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="5"/>
+      <c r="B397" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C397" t="str">
+        <f>B397</f>
+        <v>No therapies are medically indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="31"/>
+      <c r="B398" s="32"/>
+    </row>
+    <row r="399" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="34"/>
+      <c r="B399" s="32"/>
+      <c r="C399" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="34"/>
+      <c r="B400" s="32"/>
+      <c r="C400" s="6"/>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="5"/>
+      <c r="C401" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="5"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B403" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C403" t="str">
+        <f>B403</f>
+        <v>The A233974736G A:G heterozygous variant has an increased risk of CFS, with an [odds ratio of 0.37](https://www.ncbi.nlm.nih.gov/pubmed/27835969).</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="5"/>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="5"/>
+      <c r="C405" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="5"/>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="5"/>
+      <c r="B407" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C407" t="str">
+        <f>B407</f>
+        <v xml:space="preserve">Some general therapies are associated with TPRM8 variants.  Avoid cold air [below 25˚ C](http://www.uniprot.org/uniprot/Q7Z2W7). The carboxamide [WS-12](https://www.ncbi.nlm.nih.gov/pubmed/18930858)(a menthol derivative with much higher efficacy and potency) or [icilin](https://www.ncbi.nlm.nih.gov/pubmed/17517434) may protect against increased cold perception by upregulating the TRPM8 gene.  Other medications include [menthol and eucalyptol](https://www.ncbi.nlm.nih.gov/pubmed/14757700). </v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B408" s="32"/>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>65</v>
+      </c>
+      <c r="B410" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C410" t="str">
+        <f>CONCATENATE("&lt;symptoms ",B410," /&gt;")</f>
+        <v>&lt;symptoms pain, muscle pain, headache, inflammation /&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CA1597-AD18-482D-A335-F72B6491ABB7}">
+  <dimension ref="A1:C444"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" style="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("# What does the ",B2," gene do?")</f>
+        <v># What does the COMT gene do?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="str">
+        <f>B4</f>
+        <v>The TRPM8 gene encodes a cation channel that allows the movement of sodium, potassium, calcium, and cesium across plasma barriers activated by [low temperatures](https://www.ncbi.nlm.nih.gov/pubmed/14757700?dopt=Abstract).  It allows the body to detect [temperature
+changes](https://www.ncbi.nlm.nih.gov/pubmed/17217067), respond to cold, balance calcium in the body, and feel the cooling effects of menthol.   Variants in TRPM8 are associated with [breast](https://www.ncbi.nlm.nih.gov/pubmed/20482834), [pancreatic](https://www.ncbi.nlm.nih.gov/pubmed/27038374), [lung](https://www.ncbi.nlm.nih.gov/pubmed/24037916), and [prostate](https://www.ncbi.nlm.nih.gov/pubmed/25065497) cancer.  Additional issues include increased susceptibility to [metabolic syndrome](https://www.ncbi.nlm.nih.gov/pubmed/25967713), [migraines](https://www.ncbi.nlm.nih.gov/pubmed/23294458?dopt=Abstract), [alcohol dependence](https://www.ncbi.nlm.nih.gov/pubmed/23942779?dopt=Abstract), [COPD](https://www.ncbi.nlm.nih.gov/pubmed/27789940), [pain](https://www.ncbi.nlm.nih.gov/pubmed/22072275?dopt=Abstract) and [cold sensitivity](https://www.ncbi.nlm.nih.gov/pubmed/21542321?dopt=Abstract), [asthma](https://www.ncbi.nlm.nih.gov/pubmed/26272603), and [inflammation](https://www.ncbi.nlm.nih.gov/pubmed/26660531).  Other variants reduce natural killer cell function in the immune system and are associated with [CFS](https://www.ncbi.nlm.nih.gov/pubmed/27099524).</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="28"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="27">
+        <v>2</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE("This gene is located on chromosome ",B6,".  The ",B7," it creates acts in your ",B8)</f>
+        <v>This gene is located on chromosome 2.  The enzyme it creates acts in your  brain and nervous system, liver, kidney, and blood</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" t="str">
+        <f>CONCATENATE("&lt;TissueList ",B9," /&gt;")</f>
+        <v>&lt;TissueList brain, liver, Kidney and urinary bladder, circulatory and cardiovascular system /&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="32"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" t="str">
+        <f>CONCATENATE("&lt;GeneAnalysis gene=",CHAR(34),B11,CHAR(34)," interval=",CHAR(34),B12,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">&lt;GeneAnalysis gene="COMT" interval=" NC_000002.12 :g.233917342_234019522"&gt; </v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="27">
+        <v>5</v>
+      </c>
+      <c r="C13" t="str">
+        <f>CONCATENATE(" # What are some common mutations of ",B11,"?")</f>
+        <v xml:space="preserve"> # What are some common mutations of COMT?</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="str">
+        <f>CONCATENATE("There are ",B13," well known variants in ",B11,": ",B21,", ",B27,", ",B33,", ",B39,", and ",B45,".")</f>
+        <v>There are 5 well known variants in COMT: [G472A](https://www.ncbi.nlm.nih.gov/pubmed/21059181), [C62T](https://www.ncbi.nlm.nih.gov/pubmed/26891941), [T19943884C](https://www.ncbi.nlm.nih.gov/pubmed/19540336), [T19960814C](https://www.ncbi.nlm.nih.gov/pubmed/19772600), and [A7783504C](https://www.ncbi.nlm.nih.gov/pubmed/19540336).</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="C16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" t="str">
+        <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B17,CHAR(34)," name=",CHAR(34),B18,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Variant hgvs="NC_000022.11:g.19963748G&gt;A" name="G472A"&gt; </v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B11," gene from ",B19," to ",B20," resulting in incorrect ",B7," function.  This substitution of a single nucleotide is known as a missense variant.")</f>
+        <v xml:space="preserve">    This variant is a change at a specific point in the COMT gene from guanine (G) to adenine (A) resulting in incorrect enzyme function.  This substitution of a single nucleotide is known as a missense variant.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" t="str">
+        <f>"&lt;/Variant&gt;"</f>
+        <v>&lt;/Variant&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" t="str">
+        <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B23,CHAR(34)," name=",CHAR(34),B24,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Variant hgvs="NC_000022.11:g.19962712C&gt;T" name="C62T"&gt; </v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="27" t="str">
+        <f>"cytosine (C)"</f>
+        <v>cytosine (C)</v>
+      </c>
+      <c r="C25" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B11," gene from ",B25," to ",B26," resulting in incorrect ",B7," function.  This substitution of a single nucleotide is known as a missense variant.")</f>
+        <v xml:space="preserve">    This variant is a change at a specific point in the COMT gene from cytosine (C) to thymine (T) resulting in incorrect enzyme function.  This substitution of a single nucleotide is known as a missense variant.</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" t="str">
+        <f>"&lt;/Variant&gt;"</f>
+        <v>&lt;/Variant&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" t="str">
+        <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B29,CHAR(34)," name=",CHAR(34),B30,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Variant hgvs="NC_000022.11:g.19943884T&gt;C" name="T19943884C"&gt; </v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B11," gene from ",B31," to ",B32," resulting in incorrect ",B7," function.  This substitution of a single nucleotide is known as a missense variant.")</f>
+        <v xml:space="preserve">    This variant is a change at a specific point in the COMT gene from guanine (G) to cytosine (C) resulting in incorrect enzyme function.  This substitution of a single nucleotide is known as a missense variant.</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="27" t="str">
+        <f>"cytosine (C)"</f>
+        <v>cytosine (C)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" t="str">
+        <f>"&lt;/Variant&gt;"</f>
+        <v>&lt;/Variant&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="C34" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" t="str">
+        <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B35,CHAR(34)," name=",CHAR(34),B36,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Variant hgvs="NC_000022.11:g.19960814T&gt;C" name="T19960814C"&gt; </v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B11," gene from ",B37," to ",B38," resulting in incorrect ",B7," function.  This substitution of a single nucleotide is known as a missense variant.")</f>
+        <v xml:space="preserve">    This variant is a change at a specific point in the COMT gene from thymine (T) to cytosine (C) resulting in incorrect enzyme function.  This substitution of a single nucleotide is known as a missense variant.</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="27" t="str">
+        <f>"cytosine (C)"</f>
+        <v>cytosine (C)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="C39" t="str">
+        <f>"&lt;/Variant&gt;"</f>
+        <v>&lt;/Variant&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="C40" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" t="str">
+        <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B41,CHAR(34)," name=",CHAR(34),B42,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Variant hgvs="NC_000022.11:g.19950010T&gt;G" name="T19950010G"&gt; </v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B11," gene from ",B43," to ",B44," resulting in incorrect ",B7," function.  This substitution of a single nucleotide is known as a missense variant.")</f>
+        <v xml:space="preserve">    This variant is a change at a specific point in the COMT gene from adenine (A) to guanine (G) resulting in incorrect enzyme function.  This substitution of a single nucleotide is known as a missense variant.</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="C45" t="str">
+        <f>"&lt;/Variant&gt;"</f>
+        <v>&lt;/Variant&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="31"/>
+      <c r="B46" s="32"/>
+    </row>
+    <row r="47" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="31"/>
+      <c r="B47" s="32"/>
+      <c r="C47" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B48,B49,";",B50,CHAR(34)," name=",CHAR(34),B18,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000022.11:g.[19963748G&gt;A];[19963748=]" name="G472A"&gt; </v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="27" t="str">
+        <f>CONCATENATE("People with this variant have one copy of the ",B21," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have one copy of the [G472A](https://www.ncbi.nlm.nih.gov/pubmed/21059181) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="str">
+        <f>CONCATENATE("         ",B51)</f>
+        <v xml:space="preserve">         People with this variant have one copy of the [G472A](https://www.ncbi.nlm.nih.gov/pubmed/21059181) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="C56" t="str">
+        <f>CONCATENATE("         ",B52)</f>
+        <v xml:space="preserve">         </v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="C58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="C60" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B53," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage= /&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="C61" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="27" t="str">
+        <f>CONCATENATE("People with this variant have two copies of the ",B21," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have two copies of the [G472A](https://www.ncbi.nlm.nih.gov/pubmed/21059181) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C62" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B48,B49,";",B49,CHAR(34)," name=",CHAR(34),B18,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000022.11:g.[19963748G&gt;A];[19963748G&gt;A]" name="G472A"&gt; </v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="27">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="C66" t="str">
+        <f>CONCATENATE("         ",B62)</f>
+        <v xml:space="preserve">         People with this variant have two copies of the [G472A](https://www.ncbi.nlm.nih.gov/pubmed/21059181) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="C70" t="str">
+        <f>CONCATENATE("         ",B63)</f>
+        <v xml:space="preserve">         Your variant is not associated with any loss of function</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="C72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="C74" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B64," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=10 /&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="C75" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="27" t="str">
+        <f>CONCATENATE("Your ",B11," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wildtype",CHAR(34)," gene.")</f>
+        <v>Your COMT gene has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+      <c r="C76" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B48,B50,";",B50,CHAR(34)," name=",CHAR(34),B18,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000022.11:g.[19963748=];[19963748=]" name="G472A"&gt; </v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" t="str">
+        <f>"No medical therapies are indicated at the moment."</f>
+        <v>No medical therapies are indicated at the moment.</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" s="27">
+        <v>61.8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="C80" t="str">
+        <f>CONCATENATE("         ",B76)</f>
+        <v xml:space="preserve">         Your COMT gene has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="C84" t="str">
+        <f>CONCATENATE("         ",B77)</f>
+        <v xml:space="preserve">         No medical therapies are indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="C86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="C88" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B78," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=61.8 /&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="C89" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="C90" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C91" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B91,B92,";",B93,CHAR(34)," name=",CHAR(34),B24,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000022.11:g.[19962712C&gt;T];[19962712=]" name="C62T"&gt; </v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C93" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B94" s="27" t="str">
+        <f>CONCATENATE("People with this variant have one copy of the ",B27," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have one copy of the [C62T](https://www.ncbi.nlm.nih.gov/pubmed/26891941) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C95" t="str">
+        <f>CONCATENATE("         ",B94)</f>
+        <v xml:space="preserve">         People with this variant have one copy of the [C62T](https://www.ncbi.nlm.nih.gov/pubmed/26891941) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+      <c r="C99" t="str">
+        <f>CONCATENATE("         ",B95)</f>
+        <v xml:space="preserve">         You are in the Severe Risk category.  See below for more information.</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+      <c r="C101" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="C103" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B96," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage= /&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="C104" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="27" t="str">
+        <f>CONCATENATE("People with this variant have two copies of the ",B27," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have two copies of the [C62T](https://www.ncbi.nlm.nih.gov/pubmed/26891941) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C105" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B91,B92,";",B92,CHAR(34)," name=",CHAR(34),B24,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000022.11:g.[19962712C&gt;T];[19962712C&gt;T]" name="C62T"&gt; </v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B107" s="27">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="C107" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="6"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="C109" t="str">
+        <f>CONCATENATE("         ",B105)</f>
+        <v xml:space="preserve">         People with this variant have two copies of the [C62T](https://www.ncbi.nlm.nih.gov/pubmed/26891941) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="6"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="6"/>
+      <c r="C113" t="str">
+        <f>CONCATENATE("         ",B106)</f>
+        <v xml:space="preserve">         No medical therapies are indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="C115" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="C117" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B107," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=19.6 /&gt;</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="C118" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" s="27" t="str">
+        <f>CONCATENATE("Your ",B11," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wildtype",CHAR(34)," gene.")</f>
+        <v>Your COMT gene has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+      <c r="C119" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B91,B93,";",B93,CHAR(34)," name=",CHAR(34),B24,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000022.11:g.[19962712=];[19962712=]" name="C62T"&gt; </v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B121" s="27">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="C121" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="6"/>
+      <c r="C123" t="str">
+        <f>CONCATENATE("         ",B119)</f>
+        <v xml:space="preserve">         Your COMT gene has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="6"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="6"/>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="6"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="6"/>
+      <c r="C127" t="str">
+        <f>CONCATENATE("         ",B120)</f>
+        <v xml:space="preserve">         No medical therapies are indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="5"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+      <c r="C129" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+      <c r="C131" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B121," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=37.2 /&gt;</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+      <c r="C132" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="5"/>
+      <c r="C133" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C134" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B134,B135,";",B136,CHAR(34)," name=",CHAR(34),B30,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.12:g.[233945906G&gt;C];[233945906=]" name="T19943884C"&gt; </v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B135" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B136" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C136" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B137" s="27" t="str">
+        <f>CONCATENATE("People with this variant have one copy of the ",B30," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have one copy of the T19943884C variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C138" t="str">
+        <f>CONCATENATE("         ",B137)</f>
+        <v xml:space="preserve">         People with this variant have one copy of the T19943884C variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B139" s="27">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="5"/>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="6"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="6"/>
+      <c r="C142" t="str">
+        <f>CONCATENATE("         ",B138)</f>
+        <v xml:space="preserve">         This variant is not associated with Moderate Loss of Function.</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="6"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="6"/>
+      <c r="C144" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="5"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="5"/>
+      <c r="C146" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B139," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=22.1 /&gt;</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="5"/>
+      <c r="C147" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B148" s="27" t="str">
+        <f>CONCATENATE("People with this variant have two copies of the ",B30," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have two copies of the T19943884C variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C148" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B134,B135,";",B135,CHAR(34)," name=",CHAR(34),B30,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.12:g.[233945906G&gt;C];[233945906G&gt;C]" name="T19943884C"&gt; </v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B149" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C149" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B150" s="27">
+        <v>7.5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="6"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="5"/>
+      <c r="C152" t="str">
+        <f>CONCATENATE("         ",B148)</f>
+        <v xml:space="preserve">         People with this variant have two copies of the T19943884C variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="6"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="6"/>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="6"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="6"/>
+      <c r="C156" t="str">
+        <f>CONCATENATE("         ",B149)</f>
+        <v xml:space="preserve">         You are in the Severe Loss of Function category.  See below for more information.</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="6"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
+      <c r="C158" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="5"/>
+      <c r="C160" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B150," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=7.5 /&gt;</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="5"/>
+      <c r="C161" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B162" s="27" t="str">
+        <f>CONCATENATE("Your ",B11," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wildtype",CHAR(34)," gene.")</f>
+        <v>Your COMT gene has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+      <c r="C162" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B134,B136,";",B136,CHAR(34)," name=",CHAR(34),B30,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.12:g.[233945906=];[233945906=]" name="T19943884C"&gt; </v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B163" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B164" s="27">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="C164" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="5"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="6"/>
+      <c r="C166" t="str">
+        <f>CONCATENATE("         ",B162)</f>
+        <v xml:space="preserve">         Your COMT gene has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="6"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="6"/>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="6"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="6"/>
+      <c r="C170" t="str">
+        <f>CONCATENATE("         ",B163)</f>
+        <v xml:space="preserve">         No medical therapies are indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="5"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="5"/>
+      <c r="C172" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="5"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="5"/>
+      <c r="C174" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B164," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=70.4 /&gt;</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="5"/>
+      <c r="C175" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="5"/>
+      <c r="C176" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C177" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B177,B178,";",B179,CHAR(34)," name=",CHAR(34),B36,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.12:g.[233916448T&gt;C];[233916448=]" name="T19960814C"&gt; </v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B178" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B179" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C179" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B180" s="27" t="str">
+        <f>CONCATENATE("People with this variant have one copy of the ",B39," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have one copy of the [T19960814C](https://www.ncbi.nlm.nih.gov/pubmed/19772600) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C180" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B181" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C181" t="str">
+        <f>CONCATENATE("         ",B180)</f>
+        <v xml:space="preserve">         People with this variant have one copy of the [T19960814C](https://www.ncbi.nlm.nih.gov/pubmed/19772600) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B182" s="27">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="5"/>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="6"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="6"/>
+      <c r="C185" t="str">
+        <f>CONCATENATE("         ",B181)</f>
+        <v xml:space="preserve">         This variant is not associated with increased risk.</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="6"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="6"/>
+      <c r="C187" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="5"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="5"/>
+      <c r="C189" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B182," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=49.7 /&gt;</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="5"/>
+      <c r="C190" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B191" s="27" t="str">
+        <f>CONCATENATE("People with this variant have two copies of the ",B39," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have two copies of the [T19960814C](https://www.ncbi.nlm.nih.gov/pubmed/19772600) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C191" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B177,B178,";",B178,CHAR(34)," name=",CHAR(34),B36,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.12:g.[233916448T&gt;C];[233916448T&gt;C]" name="T19960814C"&gt; </v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B192" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C192" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B193" s="27">
+        <v>30.4</v>
+      </c>
+      <c r="C193" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="6"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="5"/>
+      <c r="C195" t="str">
+        <f>CONCATENATE("         ",B191)</f>
+        <v xml:space="preserve">         People with this variant have two copies of the [T19960814C](https://www.ncbi.nlm.nih.gov/pubmed/19772600) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="6"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="6"/>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="6"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="6"/>
+      <c r="C199" t="str">
+        <f>CONCATENATE("         ",B192)</f>
+        <v xml:space="preserve">         You are in the Severe Loss of Function category.  See below for more information.</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="6"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="5"/>
+      <c r="C201" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="5"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="5"/>
+      <c r="C203" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B193," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=30.4 /&gt;</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="5"/>
+      <c r="C204" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B205" s="27" t="str">
+        <f>CONCATENATE("Your ",B11," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wildtype",CHAR(34)," gene.")</f>
+        <v>Your COMT gene has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+      <c r="C205" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B177,B179,";",B179,CHAR(34)," name=",CHAR(34),B36,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.12:g.[233916448=];[233916448=]" name="T19960814C"&gt; </v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B206" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C206" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B207" s="27">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C207" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="5"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="6"/>
+      <c r="C209" t="str">
+        <f>CONCATENATE("         ",B205)</f>
+        <v xml:space="preserve">         Your COMT gene has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="6"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="6"/>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="6"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="6"/>
+      <c r="C213" t="str">
+        <f>CONCATENATE("         ",B206)</f>
+        <v xml:space="preserve">         This variant is not associated with increased risk.</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="5"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="5"/>
+      <c r="C215" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="5"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="5"/>
+      <c r="C217" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B207," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=19.9 /&gt;</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="5"/>
+      <c r="C218" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="5"/>
+      <c r="C219" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="5"/>
+      <c r="C220" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C221" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B221,B222,";",B223,CHAR(34)," name=",CHAR(34),B42,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.12:g.[233974736A&gt;G];[233974736=]" name="T19950010G"&gt; </v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B222" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B223" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C223" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B224" s="27" t="str">
+        <f>CONCATENATE("People with this variant have one copy of the ",B45," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have one copy of the [A7783504C](https://www.ncbi.nlm.nih.gov/pubmed/19540336) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C224" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B225" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C225" t="str">
+        <f>CONCATENATE("         ",B224)</f>
+        <v xml:space="preserve">         People with this variant have one copy of the [A7783504C](https://www.ncbi.nlm.nih.gov/pubmed/19540336) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B226" s="27">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="5"/>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="6"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="6"/>
+      <c r="C229" t="str">
+        <f>CONCATENATE("         ",B225)</f>
+        <v xml:space="preserve">         People with this variant have an increased risk of CFS.  See below for more information.</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="6"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="6"/>
+      <c r="C231" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="5"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="5"/>
+      <c r="C233" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B226," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=14.2 /&gt;</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="5"/>
+      <c r="C234" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B235" s="27" t="str">
+        <f>CONCATENATE("People with this variant have two copies of the ",B45," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
+        <v>People with this variant have two copies of the [A7783504C](https://www.ncbi.nlm.nih.gov/pubmed/19540336) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+      <c r="C235" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B221,B222,";",B222,CHAR(34)," name=",CHAR(34),B42,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.12:g.[233974736A&gt;G];[233974736A&gt;G]" name="T19950010G"&gt; </v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B236" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C236" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B237" s="27">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="C237" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="6"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="5"/>
+      <c r="C239" t="str">
+        <f>CONCATENATE("         ",B235)</f>
+        <v xml:space="preserve">         People with this variant have two copies of the [A7783504C](https://www.ncbi.nlm.nih.gov/pubmed/19540336) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="6"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="6"/>
+      <c r="C241" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="6"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="6"/>
+      <c r="C243" t="str">
+        <f>CONCATENATE("         ",B236)</f>
+        <v xml:space="preserve">         This variant is not associated with increased risk.</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="6"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="5"/>
+      <c r="C245" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="5"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="5"/>
+      <c r="C247" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B237," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=81.6 /&gt;</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="5"/>
+      <c r="C248" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B249" s="27" t="str">
+        <f>CONCATENATE("Your ",B11," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wildtype",CHAR(34)," gene.")</f>
+        <v>Your COMT gene has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+      <c r="C249" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B221,B223,";",B223,CHAR(34)," name=",CHAR(34),B42,CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000002.12:g.[233974736=];[233974736=]" name="T19950010G"&gt; </v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B250" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C250" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B251" s="27">
+        <v>4.2</v>
+      </c>
+      <c r="C251" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="5"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="6"/>
+      <c r="C253" t="str">
+        <f>CONCATENATE("         ",B249)</f>
+        <v xml:space="preserve">         Your COMT gene has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="6"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="6"/>
+      <c r="C255" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="6"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="6"/>
+      <c r="C257" t="str">
+        <f>CONCATENATE("         ",B250)</f>
+        <v xml:space="preserve">         This variant is not associated with increased risk.</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="5"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="5"/>
+      <c r="C259" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="5"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="5"/>
+      <c r="C261" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B251," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage=4.2 /&gt;</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="5"/>
+      <c r="C262" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B263" s="27" t="str">
+        <f>CONCATENATE("Your ",B11," has an unknown variant.")</f>
+        <v>Your COMT has an unknown variant.</v>
+      </c>
+      <c r="C263" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),"unknown",CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="unknown"&gt; </v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B264" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C264" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C265" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="6"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="6"/>
+      <c r="C267" t="str">
+        <f>CONCATENATE("         ",B263)</f>
+        <v xml:space="preserve">         Your COMT has an unknown variant.</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="6"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="6"/>
+      <c r="C269" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="6"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="5"/>
+      <c r="C271" t="str">
+        <f>CONCATENATE("         ",B264)</f>
+        <v xml:space="preserve">         The effect is unknown.</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="6"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="5"/>
+      <c r="C273" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="5"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="5"/>
+      <c r="C275" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B265," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage= /&gt;</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="5"/>
+      <c r="C276" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B277" s="27" t="str">
+        <f>CONCATENATE("Your ",B11," has no variants. A normal gene is referred to as a ",CHAR(34),"wildtype",CHAR(34)," gene.")</f>
+        <v>Your COMT has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+      <c r="C277" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),"wildtype",CHAR(34),"&gt;")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="wildtype"&gt;</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B278" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C278" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C279" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="6"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="6"/>
+      <c r="C281" t="str">
+        <f>CONCATENATE("         ",B277)</f>
+        <v xml:space="preserve">         Your COMT has no variants. A normal gene is referred to as a "wildtype" gene.</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="6"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="6"/>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="6"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="6"/>
+      <c r="C285" t="str">
+        <f>CONCATENATE("         ",B278)</f>
+        <v xml:space="preserve">         This variant is not associated with increased risk.</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="6"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="6"/>
+      <c r="C287" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="5"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="6"/>
+      <c r="C289" t="str">
+        <f>CONCATENATE( "   &lt;piechart percentage=",B279," /&gt;")</f>
+        <v xml:space="preserve">   &lt;piechart percentage= /&gt;</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="6"/>
+      <c r="C290" t="str">
+        <f>"  &lt;/Genotype&gt;"</f>
+        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="6"/>
+      <c r="C291" t="str">
+        <f>"&lt;/GeneAnalysis&gt;"</f>
+        <v>&lt;/GeneAnalysis&gt;</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="31"/>
+      <c r="B292" s="32"/>
+    </row>
+    <row r="293" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="34"/>
+      <c r="B293" s="32"/>
+      <c r="C293" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="34"/>
+      <c r="B294" s="32"/>
+      <c r="C294" s="6"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="5"/>
+      <c r="C295" t="str">
+        <f>CONCATENATE("# How do changes in ",B11," affect people?")</f>
+        <v># How do changes in COMT affect people?</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="5"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B297" s="27" t="str">
+        <f>CONCATENATE("For the vast majority of people, the overall risk associated with the common ",B11," variants is small, and do not impact treatment. It is possible that variants in this gene interact with other gene variants, which is the reason for our inclusion of this gene in the gene panel.")</f>
+        <v>For the vast majority of people, the overall risk associated with the common COMT variants is small, and do not impact treatment. It is possible that variants in this gene interact with other gene variants, which is the reason for our inclusion of this gene in the gene panel.</v>
+      </c>
+      <c r="C297" t="str">
+        <f>B297</f>
+        <v>For the vast majority of people, the overall risk associated with the common COMT variants is small, and do not impact treatment. It is possible that variants in this gene interact with other gene variants, which is the reason for our inclusion of this gene in the gene panel.</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="5"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="5"/>
+      <c r="C299" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="5"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B301" s="27" t="str">
+        <f>CONCATENATE("The ",B11," ",B7,"s function normally.")</f>
+        <v>The COMT enzymes function normally.</v>
+      </c>
+      <c r="C301" t="str">
+        <f>B301</f>
+        <v>The COMT enzymes function normally.</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="5"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="5"/>
+      <c r="C303" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="5"/>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="5"/>
+      <c r="B305" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C305" t="str">
+        <f>B305</f>
+        <v>No therapies are medically indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="31"/>
+      <c r="B306" s="32"/>
+    </row>
+    <row r="307" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="34"/>
+      <c r="B307" s="32"/>
+      <c r="C307" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="34"/>
+      <c r="B308" s="32"/>
+      <c r="C308" s="6"/>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="5"/>
+      <c r="C309" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="5"/>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B311" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C311" t="str">
+        <f>B311</f>
+        <v>Natural killer cells (NKC) are a type of white blood cells found in the blood, bone marrow, spleen, and lymph nodes.  They kill viral infected cells and tumorous cells.  CFS patients have half the cellular efficiency of the normal population with a [17% cellular death rate](https://www.ncbi.nlm.nih.gov/pubmed/27099524).  The G3264+630A variant decreases gene expression in both the DNA and RNA, causing significant reduction in NKC activity.  This variant was 2X as common in [CFS patients at 82.1% with an odds ratio of 7.19.](https://www.ncbi.nlm.nih.gov/pubmed/27099524)</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="5"/>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="5"/>
+      <c r="C313" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="5"/>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="5"/>
+      <c r="B315" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C315" t="str">
+        <f>B315</f>
+        <v>Many dietary supplements have been found to increase or decrease natural killer cell function. 
+- [Resveratrol](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4855330/) stimulates the immune system in increase NKC activity, but sufficient body concentration can only be achieved through supplementation.  
+- [Myricetin](https://www.ncbi.nlm.nih.gov/pubmed/25075019), a flavonoid found in food and red wine, can increase NKC activity.
+- [Quercetin](https://www.ncbi.nlm.nih.gov/pubmed/19449452), a flavonoid in onions and fruits may improve NKC and T cell function.
+- [Histone deacetylase inhibitors (HDACi) including suberoylanilide hydroxamic acid and valproic acid](https://www.ncbi.nlm.nih.gov/pubmed/17349632/) impair NKC function and should be avoided.</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="31"/>
+      <c r="B317" s="32"/>
+    </row>
+    <row r="318" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="34"/>
+      <c r="B318" s="32"/>
+      <c r="C318" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="34"/>
+      <c r="B319" s="32"/>
+      <c r="C319" s="6"/>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="5"/>
+      <c r="C320" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="5"/>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B322" s="27" t="str">
+        <f>CONCATENATE("The fully functional ",B11," ",B7,"s allow normal natural killer cells (NKC) function with no increased risk of CFS.")</f>
+        <v>The fully functional COMT enzymes allow normal natural killer cells (NKC) function with no increased risk of CFS.</v>
+      </c>
+      <c r="C322" t="str">
+        <f>B322</f>
+        <v>The fully functional COMT enzymes allow normal natural killer cells (NKC) function with no increased risk of CFS.</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="5"/>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="5"/>
+      <c r="C324" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="5"/>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="5"/>
+      <c r="B326" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C326" t="str">
+        <f>B326</f>
+        <v>No therapies are medically indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="31"/>
+      <c r="B327" s="32"/>
+    </row>
+    <row r="328" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="34"/>
+      <c r="B328" s="32"/>
+      <c r="C328" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="34"/>
+      <c r="B329" s="32"/>
+      <c r="C329" s="6"/>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="5"/>
+      <c r="C330" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="5"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B332" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C332" t="str">
+        <f>B332</f>
+        <v>Natural killer cells (NKC) are a type of white blood cells found in the blood, bone marrow, spleen, and lymph nodes.  They kill viral infected cells and tumorous cells.  CFS patients have half the cellular efficiency of the normal population with a [17% cellular death rate](https://www.ncbi.nlm.nih.gov/pubmed/27099524).  The G3264+2567A variant decreases gene expression in both the DNA and RNA, causing significant reduction in NKC activity.  This variant was 2X as common in [CFS patients at 73.3% with an odds ratio of 3.56](https://www.ncbi.nlm.nih.gov/pubmed/27099524).</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="5"/>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="5"/>
+      <c r="C334" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="5"/>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="5"/>
+      <c r="B336" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C336" t="str">
+        <f>B336</f>
+        <v>Many dietary supplements have been found to increase or decrease natural killer cell function. 
+- [Resveratrol](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4855330/) stimulates the immune system in increase NKC activity, but sufficient body concentration can only be achieved through supplementation.  
+- [Myricetin](https://www.ncbi.nlm.nih.gov/pubmed/25075019), a flavonoid found in food and red wine, can increase NKC activity.
+- [Quercetin](https://www.ncbi.nlm.nih.gov/pubmed/19449452), a flavonoid in onions and fruits may improve NKC and T cell function.
+- [Histone deacetylase inhibitors (HDACi) including suberoylanilide hydroxamic acid and valproic acid](https://www.ncbi.nlm.nih.gov/pubmed/17349632/) impair NKC function and should be avoided.</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="31"/>
+      <c r="B337" s="32"/>
+    </row>
+    <row r="338" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="34"/>
+      <c r="B338" s="32"/>
+      <c r="C338" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="34"/>
+      <c r="B339" s="32"/>
+      <c r="C339" s="6"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="5"/>
+      <c r="C340" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="5"/>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B342" s="27" t="str">
+        <f>CONCATENATE("The ",B11," ",B7,"s function normally.")</f>
+        <v>The COMT enzymes function normally.</v>
+      </c>
+      <c r="C342" t="str">
+        <f>B342</f>
+        <v>The COMT enzymes function normally.</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="5"/>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="5"/>
+      <c r="C344" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="5"/>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="5"/>
+      <c r="B346" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C346" t="str">
+        <f>B346</f>
+        <v>No therapies are medically indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="31"/>
+      <c r="B347" s="32"/>
+    </row>
+    <row r="348" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="34"/>
+      <c r="B348" s="32"/>
+      <c r="C348" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="34"/>
+      <c r="B349" s="32"/>
+      <c r="C349" s="6"/>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="5"/>
+      <c r="C350" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="5"/>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B352" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C352" t="str">
+        <f>B352</f>
+        <v>The heterozygous GC variant has multiple effects.  Firstly, it causes [increased sensitivity to cold](https://www.ncbi.nlm.nih.gov/pubmed/21542321?dopt=Abstract) as well as increased [inflammation](https://www.ncbi.nlm.nih.gov/pubmed/26660531) due to improper temperature regulation.  It may also cause increased cold-induced airway hyperresponsiveness (CAH) in bronchial asthma (BA) patients.  As the TRPM8 gene regulates cold perception, improper function may lead to hyperstimulation and increased CAH events.  The GC genotype has an [odds ratio of 3.73](https://www.ncbi.nlm.nih.gov/pubmed/26272603), a decrease in forced expiratory volume.</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="5"/>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="5"/>
+      <c r="C354" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="5"/>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="5"/>
+      <c r="B356" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C356" t="str">
+        <f>B356</f>
+        <v>If possible, avoid cold air [below 25˚ C](http://www.uniprot.org/uniprot/Q7Z2W7). The carboxamide [WS-12](https://www.ncbi.nlm.nih.gov/pubmed/18930858)(a menthol derivative with much higher efficacy and potency) or [icilin](https://www.ncbi.nlm.nih.gov/pubmed/17517434) may protect against increased cold perception by upregulating the TRPM8 gene,
+reducing bronchial shock.  Other medications include [menthol and eucalyptol](https://www.ncbi.nlm.nih.gov/pubmed/14757700), but this variant causes [lower menthol efficacy](https://www.ncbi.nlm.nih.gov/pubmed/21542321?dopt=Abstract). Users should avoid alcohol and smoking.</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="31"/>
+      <c r="B357" s="32"/>
+    </row>
+    <row r="358" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="34"/>
+      <c r="B358" s="32"/>
+      <c r="C358" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="34"/>
+      <c r="B359" s="32"/>
+      <c r="C359" s="6"/>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="5"/>
+      <c r="C360" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="5"/>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B362" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C362" t="str">
+        <f>B362</f>
+        <v>The homozygous GG variant has greatly decreased gene function, causing greatly [increased sensitivity to cold](https://www.ncbi.nlm.nih.gov/pubmed/21542321?dopt=Abstract) and greatly increased [inflammation](https://www.ncbi.nlm.nih.gov/pubmed/26660531).  This may cause increased [asthmatic attacks](https://www.ncbi.nlm.nih.gov/pubmed/26272603) in cold weather and decreased lung function.</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="5"/>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="5"/>
+      <c r="C364" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="5"/>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="5"/>
+      <c r="B366" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C366" t="str">
+        <f>B366</f>
+        <v>Avoid cold air [below 25˚ C](http://www.uniprot.org/uniprot/Q7Z2W7). The carboxamide [WS-12](https://www.ncbi.nlm.nih.gov/pubmed/18930858)(a menthol derivative with much higher efficacy and potency) or [icilin](https://www.ncbi.nlm.nih.gov/pubmed/17517434) may protect against increased cold perception by upregulating the TRPM8 gene,
+reducing bronchial shock.  Other medications include [menthol and eucalyptol](https://www.ncbi.nlm.nih.gov/pubmed/14757700). Users should avoid alcohol and smoking.</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="31"/>
+      <c r="B367" s="32"/>
+    </row>
+    <row r="368" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="34"/>
+      <c r="B368" s="32"/>
+      <c r="C368" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="34"/>
+      <c r="B369" s="32"/>
+      <c r="C369" s="6"/>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="5"/>
+      <c r="C370" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="5"/>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B372" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C372" t="str">
+        <f>B372</f>
+        <v>TRPM8 a cold and cold-burning pain receptor linked to [migraines](https://www.ncbi.nlm.nih.gov/pubmed/23294458?dopt=Abstract),
+[neuropathic chronic pain](https://www.ncbi.nlm.nih.gov/pubmed/22072275?dopt=Abstract), and [inflammation](https://www.ncbi.nlm.nih.gov/pubmed/26660531).  It processes [cold-mediated pain relievers](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5541777/#R30) and may modulate pain sensation and set [vascular tone](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5541777/#R31), which may influence migraines. This C-990T (C;C) variant is protective, with a [0.7X lower risk](https://www.nature.com/articles/ng.856) for migraines, and the C-990T (C;T) variant is protective, with a [0.85X lower risk](https://www.nature.com/articles/ng.856) for migraines.</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="5"/>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="5"/>
+      <c r="C374" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="5"/>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="5"/>
+      <c r="B376" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C376" t="str">
+        <f>B376</f>
+        <v>No therapies are medically indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="31"/>
+      <c r="B377" s="32"/>
+    </row>
+    <row r="378" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="34"/>
+      <c r="B378" s="32"/>
+      <c r="C378" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="34"/>
+      <c r="B379" s="32"/>
+      <c r="C379" s="6"/>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="5"/>
+      <c r="C380" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="5"/>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B382" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C382" t="str">
+        <f>B382</f>
+        <v>TRPM8 a cold and cold-burning pain receptor linked to [migraines](https://www.ncbi.nlm.nih.gov/pubmed/23294458?dopt=Abstract),
+[neuropathic chronic pain](https://www.ncbi.nlm.nih.gov/pubmed/22072275?dopt=Abstract), and [inflammation](https://www.ncbi.nlm.nih.gov/pubmed/26660531).  It processes [cold-mediated pain relievers](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5541777/#R30) and may modulate pain sensation and set [vascular tone](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5541777/#R31), which may influence migraines. This variant increases the risk for migraines as compared to CC or CT.</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="5"/>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="5"/>
+      <c r="C384" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="5"/>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="5"/>
+      <c r="B386" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C386" t="str">
+        <f>B386</f>
+        <v>Many compounds may decrease pain due to TRMP8 variants.
+- [WS-12](https://www.ncbi.nlm.nih.gov/pubmed/18930858)(a menthol derivative) has much higher potency and is twice as efficient as menthol as therapy for chronic neuropathic pain
+- Cannabinoid receptors [CB1 and CB2](https://www.ncbi.nlm.nih.gov/pubmed/18511441) are associated with pain modulation, but smoking should be avoided to reduce COPD and lung cancer risk.
+- [Nerve growth factor](https://www.ncbi.nlm.nih.gov/pubmed/18511441) administered topically decreases thermal and mechanical pain
+Other therapies may include [antibodies, siRNA, gene therapy](https://www.ncbi.nlm.nih.gov/pubmed/18511441), and avoiding air [below 25˚ C](http://www.uniprot.org/uniprot/Q7Z2W7).</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="31"/>
+      <c r="B388" s="32"/>
+    </row>
+    <row r="389" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="34"/>
+      <c r="B389" s="32"/>
+      <c r="C389" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="34"/>
+      <c r="B390" s="32"/>
+      <c r="C390" s="6"/>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="5"/>
+      <c r="C391" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="5"/>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B393" s="27" t="str">
+        <f>CONCATENATE("The ",B11," ",B7,"s are fully functional with no increased risk of CFS.")</f>
+        <v>The COMT enzymes are fully functional with no increased risk of CFS.</v>
+      </c>
+      <c r="C393" t="str">
+        <f>B393</f>
+        <v>The COMT enzymes are fully functional with no increased risk of CFS.</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="5"/>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="5"/>
+      <c r="C395" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="5"/>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="5"/>
+      <c r="B397" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C397" t="str">
+        <f>B397</f>
+        <v>No therapies are medically indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="31"/>
+      <c r="B398" s="32"/>
+    </row>
+    <row r="399" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="34"/>
+      <c r="B399" s="32"/>
+      <c r="C399" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="34"/>
+      <c r="B400" s="32"/>
+      <c r="C400" s="6"/>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="5"/>
+      <c r="C401" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="5"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B403" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C403" t="str">
+        <f>B403</f>
+        <v>The A233974736G A:G heterozygous variant has an increased risk of CFS, with an [odds ratio of 0.37](https://www.ncbi.nlm.nih.gov/pubmed/27835969).</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="5"/>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="5"/>
+      <c r="C405" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="5"/>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="5"/>
+      <c r="B407" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C407" t="str">
+        <f>B407</f>
+        <v xml:space="preserve">Some general therapies are associated with TPRM8 variants.  Avoid cold air [below 25˚ C](http://www.uniprot.org/uniprot/Q7Z2W7). The carboxamide [WS-12](https://www.ncbi.nlm.nih.gov/pubmed/18930858)(a menthol derivative with much higher efficacy and potency) or [icilin](https://www.ncbi.nlm.nih.gov/pubmed/17517434) may protect against increased cold perception by upregulating the TRPM8 gene.  Other medications include [menthol and eucalyptol](https://www.ncbi.nlm.nih.gov/pubmed/14757700). </v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B408" s="32"/>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>65</v>
+      </c>
+      <c r="B410" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C410" t="str">
+        <f>CONCATENATE("&lt;symptoms ",B410," /&gt;")</f>
+        <v>&lt;symptoms pain, muscle pain, headache, inflammation /&gt;</v>
+      </c>
+    </row>
+    <row r="444" ht="30" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B9D98E-91B2-4D4C-AE55-15953AD88817}">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="21">
+        <v>12</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>14</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>20</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>9</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>21</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>3</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>2</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>5</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>6</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>18</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>3</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>14</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>1</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>2</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>2</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>8</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>9</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>15</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>16</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>14</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>14</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>14</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>13</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+    </row>
+  </sheetData>
+  <sortState ref="A1:J62">
+    <sortCondition ref="C1:C62"/>
+    <sortCondition ref="B1:B62"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/hupf/Gene Frequency.xlsx
+++ b/doc/hupf/Gene Frequency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth\Documents\Genes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D81B48-AF11-4E39-B964-05F5DEA610E9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8B5F85-7F2A-44DD-AAF3-A947CA4CAAA8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" activeTab="1" xr2:uid="{10C40B49-6154-4245-AD46-80E39C341D73}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" firstSheet="1" activeTab="3" xr2:uid="{10C40B49-6154-4245-AD46-80E39C341D73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179017"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="278">
   <si>
     <t>Minor</t>
   </si>
@@ -861,13 +862,82 @@
   <si>
     <t xml:space="preserve">         # What does this mean?</t>
   </si>
+  <si>
+    <t>Your variant has an increased risk of type 2 diabetes.  See below for more information.</t>
+  </si>
+  <si>
+    <t>&lt;# T19960814C TC; T19960814C CC #&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This variant has a variety of effects:
+* Much more common in [CFS](https://www.ncbi.nlm.nih.gov/pubmed/19772600) patients.  
+* Lower scores in [attention tests, memory tests, and executive function](https://www.ncbi.nlm.nih.gov/pubmed/27091610).  
+* Incorrect metabolism of [Tacrolimus]( https://www.ncbi.nlm.nih.gov/pubmed/24465960), a widely used immunosuppressive drug.  
+* Increased [cold pain sensitivity](https://www.ncbi.nlm.nih.gov/pubmed/19559388) in women.  
+* Protective against [type 2 diabetes]( https://www.ncbi.nlm.nih.gov/pubmed/25927430).  
+</t>
+  </si>
+  <si>
+    <t>Be careful if taking [Tacrolimus]( https://www.ncbi.nlm.nih.gov/pubmed/24465960).  Avoid cold temperatures or temperature shock.</t>
+  </si>
+  <si>
+    <t>&lt;# T19960814C TT #&gt;</t>
+  </si>
+  <si>
+    <t>Although this is the wildtype form, it is associated with a greater incidence of [type 2 diabetes mellitus]( https://www.ncbi.nlm.nih.gov/pubmed/25927430).  Risk factors to develop diabetes include being [overweight, high blood pressure, high cholesterol, an inactive lifestyle, heart attack or stroke, depression, PCOS, and smoking](https://medlineplus.gov/howtopreventdiabetes.html).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Test your [blood sugar levels](https://medlineplus.gov/howtopreventdiabetes.html to monitor diabetes risk).  
+* If overweight, lose [weight](https://medlineplus.gov/howtopreventdiabetes.html and keep it off). 
+* Follow a [healthy eating plan](https://medlineplus.gov/howtopreventdiabetes.html) with less fat and sugar, a large amount of whole grains, fruits, and vegetables, and minimal red and processed meats.
+* [Exercise](https://medlineplus.gov/howtopreventdiabetes.html) 30 minutes 5 days a week.  
+* Do not [smoke](https://medlineplus.gov/howtopreventdiabetes.html).  
+</t>
+  </si>
+  <si>
+    <t>&lt;# T19943884C (T;T) #&gt;</t>
+  </si>
+  <si>
+    <t>&lt;# T19943884C (C;C) #&gt;</t>
+  </si>
+  <si>
+    <t>&lt;# T19943884C (T;C) #&gt;</t>
+  </si>
+  <si>
+    <t>This variant is associated with an increased risk of [CFS](https://www.ncbi.nlm.nih.gov/pubmed/19540336) as well as [major depressive disorder with melancholic features](https://www.ncbi.nlm.nih.gov/pubmed/19540336).  This variant is associated with increased “oxidative stress,” which is caused by [free radicals](https://nccih.nih.gov/health/antioxidants/introduction.htm) triggering cell damage. The increased risk of oxidative stress also leads to [cancer](https://www.ncbi.nlm.nih.gov/pubmed/21716162).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxidative stress may be mitigated through environmental changes, [antioxidants](https://nccih.nih.gov/health/antioxidants/introduction.htm), and dietary changes.
+* Avoid [ionizing radiation, smoking, metals, and high oxygen atmospheres](https://www.cancer.gov/about-cancer/causes-prevention/risk/diet/antioxidants-fact-sheet#q1). 
+* Consider a diet higher in [antioxidants, including vitamins C and E, and selenium, as well as carotenoids, such as beta-carotene, lycopene, lutein, and zeaxanthin](https://nccih.nih.gov/health/antioxidants/introduction.htm).
+* Consider eating [red and purple berries like blueberries and cranberries, orange and dark, leafy green veggies like pumpkin and spinach, tomato, red grapes, and peanuts](https://www.fruitsandveggiesmorematters.org/what-are-phytochemicals).
+</t>
+  </si>
+  <si>
+    <t>This variant is associated with increased “oxidative stress,” which is caused by [free radicals](https://nccih.nih.gov/health/antioxidants/introduction.htm) triggering cell damage. The increased risk of oxidative stress also leads to [cancer](https://www.ncbi.nlm.nih.gov/pubmed/21716162).</t>
+  </si>
+  <si>
+    <t>This variant is associated with an increased risk of [CFS](https://www.ncbi.nlm.nih.gov/pubmed/19540336) as well as [major depressive disorder with melancholic features](https://www.ncbi.nlm.nih.gov/pubmed/19540336).  This variant is also associated with lower [verbal learning and memory scores](https://www.ncbi.nlm.nih.gov/pubmed/27039372), and lower scores on a [cognitive control](https://www.ncbi.nlm.nih.gov/pubmed/27039372) tasks.  The missense variant also causes increased “oxidative stress,” which is caused by [free radicals](https://nccih.nih.gov/health/antioxidants/introduction.htm) triggering cell damage. The increased risk of oxidative stress also leads to [cancer](https://www.ncbi.nlm.nih.gov/pubmed/21716162).</t>
+  </si>
+  <si>
+    <t>&lt;# T19950010G (T;T) #&gt;</t>
+  </si>
+  <si>
+    <t>&lt;# T19950010G (T;G) #&gt;</t>
+  </si>
+  <si>
+    <t>&lt;# T19950010G (G;G) #&gt;</t>
+  </si>
+  <si>
+    <t>pain muscle fatigue POTS stress problems with thinking or memor, brain fog post exertional malaise sleep disorder depression anxiety</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1074,7 +1144,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1882,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BF5C6B-B0E8-4D48-81F7-CCA1A745BFFC}">
   <dimension ref="A1:C210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C192" sqref="C36:C192"/>
+    <sheetView topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6163,7 +6233,7 @@
     <row r="408" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B408" s="32"/>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>65</v>
       </c>
@@ -6182,10 +6252,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CA1597-AD18-482D-A335-F72B6491ABB7}">
-  <dimension ref="A1:C444"/>
+  <dimension ref="A1:C441"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A58" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C441" sqref="C2:C441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7268,7 +7338,7 @@
         <v>49</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>166</v>
+        <v>236</v>
       </c>
       <c r="C138" t="str">
         <f>CONCATENATE("         ",B137)</f>
@@ -7296,7 +7366,7 @@
       <c r="A142" s="6"/>
       <c r="C142" t="str">
         <f>CONCATENATE("         ",B138)</f>
-        <v xml:space="preserve">         Your variant is not associated with any loss of function</v>
+        <v xml:space="preserve">         You are in the Moderate Loss of Function category.  See below for more information.</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -7560,7 +7630,7 @@
         <v>49</v>
       </c>
       <c r="B181" s="27" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C181" t="str">
         <f>CONCATENATE("         ",B180)</f>
@@ -7588,7 +7658,7 @@
       <c r="A185" s="6"/>
       <c r="C185" t="str">
         <f>CONCATENATE("         ",B181)</f>
-        <v xml:space="preserve">         Your variant is not associated with any loss of function</v>
+        <v xml:space="preserve">         You are in the Severe Loss of Function category.  See below for more information.</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -7725,7 +7795,7 @@
         <v>55</v>
       </c>
       <c r="B206" s="27" t="s">
-        <v>166</v>
+        <v>260</v>
       </c>
       <c r="C206" t="s">
         <v>17</v>
@@ -7768,7 +7838,7 @@
       <c r="A213" s="6"/>
       <c r="C213" t="str">
         <f>CONCATENATE("         ",B206)</f>
-        <v xml:space="preserve">         Your variant is not associated with any loss of function</v>
+        <v xml:space="preserve">         Your variant has an increased risk of type 2 diabetes.  See below for more information.</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -8703,7 +8773,7 @@
       <c r="A358" s="34"/>
       <c r="B358" s="32"/>
       <c r="C358" s="6" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
     </row>
     <row r="359" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -8725,11 +8795,17 @@
         <v>17</v>
       </c>
       <c r="B362" s="27" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="C362" t="str">
         <f>B362</f>
-        <v>The homozygous GG variant has greatly decreased gene function, causing greatly [increased sensitivity to cold](https://www.ncbi.nlm.nih.gov/pubmed/21542321?dopt=Abstract) and greatly increased [inflammation](https://www.ncbi.nlm.nih.gov/pubmed/26660531).  This may cause increased [asthmatic attacks](https://www.ncbi.nlm.nih.gov/pubmed/26272603) in cold weather and decreased lung function.</v>
+        <v xml:space="preserve">This variant has a variety of effects:
+* Much more common in [CFS](https://www.ncbi.nlm.nih.gov/pubmed/19772600) patients.  
+* Lower scores in [attention tests, memory tests, and executive function](https://www.ncbi.nlm.nih.gov/pubmed/27091610).  
+* Incorrect metabolism of [Tacrolimus]( https://www.ncbi.nlm.nih.gov/pubmed/24465960), a widely used immunosuppressive drug.  
+* Increased [cold pain sensitivity](https://www.ncbi.nlm.nih.gov/pubmed/19559388) in women.  
+* Protective against [type 2 diabetes]( https://www.ncbi.nlm.nih.gov/pubmed/25927430).  
+</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -8747,12 +8823,11 @@
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="5"/>
       <c r="B366" s="27" t="s">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="C366" t="str">
         <f>B366</f>
-        <v>Avoid cold air [below 25˚ C](http://www.uniprot.org/uniprot/Q7Z2W7). The carboxamide [WS-12](https://www.ncbi.nlm.nih.gov/pubmed/18930858)(a menthol derivative with much higher efficacy and potency) or [icilin](https://www.ncbi.nlm.nih.gov/pubmed/17517434) may protect against increased cold perception by upregulating the TRPM8 gene,
-reducing bronchial shock.  Other medications include [menthol and eucalyptol](https://www.ncbi.nlm.nih.gov/pubmed/14757700). Users should avoid alcohol and smoking.</v>
+        <v>Be careful if taking [Tacrolimus]( https://www.ncbi.nlm.nih.gov/pubmed/24465960).  Avoid cold temperatures or temperature shock.</v>
       </c>
     </row>
     <row r="367" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -8763,7 +8838,7 @@
       <c r="A368" s="34"/>
       <c r="B368" s="32"/>
       <c r="C368" s="6" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
     </row>
     <row r="369" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -8785,12 +8860,11 @@
         <v>17</v>
       </c>
       <c r="B372" s="27" t="s">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="C372" t="str">
         <f>B372</f>
-        <v>TRPM8 a cold and cold-burning pain receptor linked to [migraines](https://www.ncbi.nlm.nih.gov/pubmed/23294458?dopt=Abstract),
-[neuropathic chronic pain](https://www.ncbi.nlm.nih.gov/pubmed/22072275?dopt=Abstract), and [inflammation](https://www.ncbi.nlm.nih.gov/pubmed/26660531).  It processes [cold-mediated pain relievers](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5541777/#R30) and may modulate pain sensation and set [vascular tone](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5541777/#R31), which may influence migraines. This C-990T (C;C) variant is protective, with a [0.7X lower risk](https://www.nature.com/articles/ng.856) for migraines, and the C-990T (C;T) variant is protective, with a [0.85X lower risk](https://www.nature.com/articles/ng.856) for migraines.</v>
+        <v>Although this is the wildtype form, it is associated with a greater incidence of [type 2 diabetes mellitus]( https://www.ncbi.nlm.nih.gov/pubmed/25927430).  Risk factors to develop diabetes include being [overweight, high blood pressure, high cholesterol, an inactive lifestyle, heart attack or stroke, depression, PCOS, and smoking](https://medlineplus.gov/howtopreventdiabetes.html).</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -8808,11 +8882,16 @@
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="5"/>
       <c r="B376" s="27" t="s">
-        <v>176</v>
+        <v>266</v>
       </c>
       <c r="C376" t="str">
         <f>B376</f>
-        <v>No therapies are medically indicated at the moment.</v>
+        <v xml:space="preserve">* Test your [blood sugar levels](https://medlineplus.gov/howtopreventdiabetes.html to monitor diabetes risk).  
+* If overweight, lose [weight](https://medlineplus.gov/howtopreventdiabetes.html and keep it off). 
+* Follow a [healthy eating plan](https://medlineplus.gov/howtopreventdiabetes.html) with less fat and sugar, a large amount of whole grains, fruits, and vegetables, and minimal red and processed meats.
+* [Exercise](https://medlineplus.gov/howtopreventdiabetes.html) 30 minutes 5 days a week.  
+* Do not [smoke](https://medlineplus.gov/howtopreventdiabetes.html).  
+</v>
       </c>
     </row>
     <row r="377" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -8823,7 +8902,7 @@
       <c r="A378" s="34"/>
       <c r="B378" s="32"/>
       <c r="C378" s="6" t="s">
-        <v>195</v>
+        <v>268</v>
       </c>
     </row>
     <row r="379" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -8845,12 +8924,11 @@
         <v>17</v>
       </c>
       <c r="B382" s="27" t="s">
-        <v>196</v>
+        <v>270</v>
       </c>
       <c r="C382" t="str">
         <f>B382</f>
-        <v>TRPM8 a cold and cold-burning pain receptor linked to [migraines](https://www.ncbi.nlm.nih.gov/pubmed/23294458?dopt=Abstract),
-[neuropathic chronic pain](https://www.ncbi.nlm.nih.gov/pubmed/22072275?dopt=Abstract), and [inflammation](https://www.ncbi.nlm.nih.gov/pubmed/26660531).  It processes [cold-mediated pain relievers](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5541777/#R30) and may modulate pain sensation and set [vascular tone](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5541777/#R31), which may influence migraines. This variant increases the risk for migraines as compared to CC or CT.</v>
+        <v>This variant is associated with an increased risk of [CFS](https://www.ncbi.nlm.nih.gov/pubmed/19540336) as well as [major depressive disorder with melancholic features](https://www.ncbi.nlm.nih.gov/pubmed/19540336).  This variant is associated with increased “oxidative stress,” which is caused by [free radicals](https://nccih.nih.gov/health/antioxidants/introduction.htm) triggering cell damage. The increased risk of oxidative stress also leads to [cancer](https://www.ncbi.nlm.nih.gov/pubmed/21716162).</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -8868,15 +8946,15 @@
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="5"/>
       <c r="B386" s="27" t="s">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c r="C386" t="str">
         <f>B386</f>
-        <v>Many compounds may decrease pain due to TRMP8 variants.
-- [WS-12](https://www.ncbi.nlm.nih.gov/pubmed/18930858)(a menthol derivative) has much higher potency and is twice as efficient as menthol as therapy for chronic neuropathic pain
-- Cannabinoid receptors [CB1 and CB2](https://www.ncbi.nlm.nih.gov/pubmed/18511441) are associated with pain modulation, but smoking should be avoided to reduce COPD and lung cancer risk.
-- [Nerve growth factor](https://www.ncbi.nlm.nih.gov/pubmed/18511441) administered topically decreases thermal and mechanical pain
-Other therapies may include [antibodies, siRNA, gene therapy](https://www.ncbi.nlm.nih.gov/pubmed/18511441), and avoiding air [below 25˚ C](http://www.uniprot.org/uniprot/Q7Z2W7).</v>
+        <v xml:space="preserve">Oxidative stress may be mitigated through environmental changes, [antioxidants](https://nccih.nih.gov/health/antioxidants/introduction.htm), and dietary changes.
+* Avoid [ionizing radiation, smoking, metals, and high oxygen atmospheres](https://www.cancer.gov/about-cancer/causes-prevention/risk/diet/antioxidants-fact-sheet#q1). 
+* Consider a diet higher in [antioxidants, including vitamins C and E, and selenium, as well as carotenoids, such as beta-carotene, lycopene, lutein, and zeaxanthin](https://nccih.nih.gov/health/antioxidants/introduction.htm).
+* Consider eating [red and purple berries like blueberries and cranberries, orange and dark, leafy green veggies like pumpkin and spinach, tomato, red grapes, and peanuts](https://www.fruitsandveggiesmorematters.org/what-are-phytochemicals).
+</v>
       </c>
     </row>
     <row r="388" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -8887,7 +8965,7 @@
       <c r="A389" s="34"/>
       <c r="B389" s="32"/>
       <c r="C389" s="6" t="s">
-        <v>199</v>
+        <v>269</v>
       </c>
     </row>
     <row r="390" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -8898,7 +8976,7 @@
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="5"/>
       <c r="C391" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -8908,13 +8986,12 @@
       <c r="A393" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B393" s="27" t="str">
-        <f>CONCATENATE("The ",B11," ",B7,"s are fully functional with no increased risk of CFS.")</f>
-        <v>The COMT enzymes are fully functional with no increased risk of CFS.</v>
+      <c r="B393" s="27" t="s">
+        <v>272</v>
       </c>
       <c r="C393" t="str">
         <f>B393</f>
-        <v>The COMT enzymes are fully functional with no increased risk of CFS.</v>
+        <v>This variant is associated with increased “oxidative stress,” which is caused by [free radicals](https://nccih.nih.gov/health/antioxidants/introduction.htm) triggering cell damage. The increased risk of oxidative stress also leads to [cancer](https://www.ncbi.nlm.nih.gov/pubmed/21716162).</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -8932,11 +9009,15 @@
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="5"/>
       <c r="B397" s="27" t="s">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="C397" t="str">
         <f>B397</f>
-        <v>No therapies are medically indicated at the moment.</v>
+        <v xml:space="preserve">Oxidative stress may be mitigated through environmental changes, [antioxidants](https://nccih.nih.gov/health/antioxidants/introduction.htm), and dietary changes.
+* Avoid [ionizing radiation, smoking, metals, and high oxygen atmospheres](https://www.cancer.gov/about-cancer/causes-prevention/risk/diet/antioxidants-fact-sheet#q1). 
+* Consider a diet higher in [antioxidants, including vitamins C and E, and selenium, as well as carotenoids, such as beta-carotene, lycopene, lutein, and zeaxanthin](https://nccih.nih.gov/health/antioxidants/introduction.htm).
+* Consider eating [red and purple berries like blueberries and cranberries, orange and dark, leafy green veggies like pumpkin and spinach, tomato, red grapes, and peanuts](https://www.fruitsandveggiesmorematters.org/what-are-phytochemicals).
+</v>
       </c>
     </row>
     <row r="398" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -8947,7 +9028,7 @@
       <c r="A399" s="34"/>
       <c r="B399" s="32"/>
       <c r="C399" s="6" t="s">
-        <v>200</v>
+        <v>267</v>
       </c>
     </row>
     <row r="400" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -8958,7 +9039,7 @@
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="5"/>
       <c r="C401" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -8968,12 +9049,13 @@
       <c r="A403" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B403" s="27" t="s">
-        <v>201</v>
+      <c r="B403" s="27" t="str">
+        <f>CONCATENATE("The ",B11," ",B7," is fully functional.")</f>
+        <v>The COMT enzyme is fully functional.</v>
       </c>
       <c r="C403" t="str">
         <f>B403</f>
-        <v>The A233974736G A:G heterozygous variant has an increased risk of CFS, with an [odds ratio of 0.37](https://www.ncbi.nlm.nih.gov/pubmed/27835969).</v>
+        <v>The COMT enzyme is fully functional.</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -8991,31 +9073,217 @@
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="5"/>
       <c r="B407" s="27" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="C407" t="str">
         <f>B407</f>
-        <v xml:space="preserve">Some general therapies are associated with TPRM8 variants.  Avoid cold air [below 25˚ C](http://www.uniprot.org/uniprot/Q7Z2W7). The carboxamide [WS-12](https://www.ncbi.nlm.nih.gov/pubmed/18930858)(a menthol derivative with much higher efficacy and potency) or [icilin](https://www.ncbi.nlm.nih.gov/pubmed/17517434) may protect against increased cold perception by upregulating the TRPM8 gene.  Other medications include [menthol and eucalyptol](https://www.ncbi.nlm.nih.gov/pubmed/14757700). </v>
+        <v>No therapies are medically indicated at the moment.</v>
       </c>
     </row>
     <row r="408" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="31"/>
       <c r="B408" s="32"/>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+    <row r="409" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="34"/>
+      <c r="B409" s="32"/>
+      <c r="C409" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="34"/>
+      <c r="B410" s="32"/>
+      <c r="C410" s="6"/>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="5"/>
+      <c r="C411" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="5"/>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B413" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="C413" t="str">
+        <f>B413</f>
+        <v>This variant is associated with an increased risk of [CFS](https://www.ncbi.nlm.nih.gov/pubmed/19540336) as well as [major depressive disorder with melancholic features](https://www.ncbi.nlm.nih.gov/pubmed/19540336).  This variant is also associated with lower [verbal learning and memory scores](https://www.ncbi.nlm.nih.gov/pubmed/27039372), and lower scores on a [cognitive control](https://www.ncbi.nlm.nih.gov/pubmed/27039372) tasks.  The missense variant also causes increased “oxidative stress,” which is caused by [free radicals](https://nccih.nih.gov/health/antioxidants/introduction.htm) triggering cell damage. The increased risk of oxidative stress also leads to [cancer](https://www.ncbi.nlm.nih.gov/pubmed/21716162).</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="5"/>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="5"/>
+      <c r="C415" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="5"/>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="5"/>
+      <c r="B417" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="C417" t="str">
+        <f>B417</f>
+        <v xml:space="preserve">Oxidative stress may be mitigated through environmental changes, [antioxidants](https://nccih.nih.gov/health/antioxidants/introduction.htm), and dietary changes.
+* Avoid [ionizing radiation, smoking, metals, and high oxygen atmospheres](https://www.cancer.gov/about-cancer/causes-prevention/risk/diet/antioxidants-fact-sheet#q1). 
+* Consider a diet higher in [antioxidants, including vitamins C and E, and selenium, as well as carotenoids, such as beta-carotene, lycopene, lutein, and zeaxanthin](https://nccih.nih.gov/health/antioxidants/introduction.htm).
+* Consider eating [red and purple berries like blueberries and cranberries, orange and dark, leafy green veggies like pumpkin and spinach, tomato, red grapes, and peanuts](https://www.fruitsandveggiesmorematters.org/what-are-phytochemicals).
+</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="31"/>
+      <c r="B419" s="32"/>
+    </row>
+    <row r="420" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="34"/>
+      <c r="B420" s="32"/>
+      <c r="C420" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="34"/>
+      <c r="B421" s="32"/>
+      <c r="C421" s="6"/>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="5"/>
+      <c r="C422" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="5"/>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B424" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="C424" t="str">
+        <f>B424</f>
+        <v>This variant is associated with increased “oxidative stress,” which is caused by [free radicals](https://nccih.nih.gov/health/antioxidants/introduction.htm) triggering cell damage. The increased risk of oxidative stress also leads to [cancer](https://www.ncbi.nlm.nih.gov/pubmed/21716162).</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="5"/>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="5"/>
+      <c r="C426" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="5"/>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="5"/>
+      <c r="B428" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="C428" t="str">
+        <f>B428</f>
+        <v xml:space="preserve">Oxidative stress may be mitigated through environmental changes, [antioxidants](https://nccih.nih.gov/health/antioxidants/introduction.htm), and dietary changes.
+* Avoid [ionizing radiation, smoking, metals, and high oxygen atmospheres](https://www.cancer.gov/about-cancer/causes-prevention/risk/diet/antioxidants-fact-sheet#q1). 
+* Consider a diet higher in [antioxidants, including vitamins C and E, and selenium, as well as carotenoids, such as beta-carotene, lycopene, lutein, and zeaxanthin](https://nccih.nih.gov/health/antioxidants/introduction.htm).
+* Consider eating [red and purple berries like blueberries and cranberries, orange and dark, leafy green veggies like pumpkin and spinach, tomato, red grapes, and peanuts](https://www.fruitsandveggiesmorematters.org/what-are-phytochemicals).
+</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="31"/>
+      <c r="B429" s="32"/>
+    </row>
+    <row r="430" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="34"/>
+      <c r="B430" s="32"/>
+      <c r="C430" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="34"/>
+      <c r="B431" s="32"/>
+      <c r="C431" s="6"/>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="5"/>
+      <c r="C432" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="5"/>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B434" s="27" t="str">
+        <f>CONCATENATE("The ",B11," ",B7," is fully functional.")</f>
+        <v>The COMT enzyme is fully functional.</v>
+      </c>
+      <c r="C434" t="str">
+        <f>B434</f>
+        <v>The COMT enzyme is fully functional.</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="5"/>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="5"/>
+      <c r="C436" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="5"/>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="5"/>
+      <c r="B438" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C438" t="str">
+        <f>B438</f>
+        <v>No therapies are medically indicated at the moment.</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B439" s="32"/>
+    </row>
+    <row r="441" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
         <v>65</v>
       </c>
-      <c r="B410" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C410" t="str">
-        <f>CONCATENATE("&lt;symptoms ",B410," /&gt;")</f>
-        <v>&lt;symptoms pain, muscle fatigue, POTS, stress, problems with thinking or memory, brain fog post exertional malaise, sleep disorder, depression, anxiety /&gt;</v>
-      </c>
-    </row>
-    <row r="444" ht="30" x14ac:dyDescent="0.25"/>
+      <c r="B441" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C441" t="str">
+        <f>CONCATENATE("&lt;symptoms ",B441," /&gt;")</f>
+        <v>&lt;symptoms pain muscle fatigue POTS stress problems with thinking or memor, brain fog post exertional malaise sleep disorder depression anxiety /&gt;</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
